--- a/stock_historical_data/60m/IDEA.NS.xlsx
+++ b/stock_historical_data/60m/IDEA.NS.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:R1698"/>
+  <dimension ref="A1:R1702"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -95101,7 +95101,7 @@
         <v>22</v>
       </c>
       <c r="O1690" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="P1690" t="n">
         <v>0</v>
@@ -95557,7 +95557,225 @@
       <c r="Q1698" t="n">
         <v>0</v>
       </c>
-      <c r="R1698" t="inlineStr"/>
+      <c r="R1698" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1699">
+      <c r="A1699" s="2" t="n">
+        <v>45446.42708333334</v>
+      </c>
+      <c r="B1699" t="n">
+        <v>15.80000019073486</v>
+      </c>
+      <c r="C1699" t="n">
+        <v>15.89999961853027</v>
+      </c>
+      <c r="D1699" t="n">
+        <v>15.64999961853027</v>
+      </c>
+      <c r="E1699" t="n">
+        <v>15.75</v>
+      </c>
+      <c r="F1699" t="n">
+        <v>15.75</v>
+      </c>
+      <c r="G1699" t="n">
+        <v>115699304</v>
+      </c>
+      <c r="H1699" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1699" t="n">
+        <v>6</v>
+      </c>
+      <c r="J1699" t="n">
+        <v>3</v>
+      </c>
+      <c r="K1699" t="n">
+        <v>10</v>
+      </c>
+      <c r="L1699" t="n">
+        <v>15</v>
+      </c>
+      <c r="M1699" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1699" t="n">
+        <v>23</v>
+      </c>
+      <c r="O1699" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1699" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1699" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1699" t="inlineStr"/>
+    </row>
+    <row r="1700">
+      <c r="A1700" s="2" t="n">
+        <v>45446.46875</v>
+      </c>
+      <c r="B1700" t="n">
+        <v>15.75</v>
+      </c>
+      <c r="C1700" t="n">
+        <v>16.10000038146973</v>
+      </c>
+      <c r="D1700" t="n">
+        <v>15.69999980926514</v>
+      </c>
+      <c r="E1700" t="n">
+        <v>15.89999961853027</v>
+      </c>
+      <c r="F1700" t="n">
+        <v>15.89999961853027</v>
+      </c>
+      <c r="G1700" t="n">
+        <v>196377387</v>
+      </c>
+      <c r="H1700" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1700" t="n">
+        <v>6</v>
+      </c>
+      <c r="J1700" t="n">
+        <v>3</v>
+      </c>
+      <c r="K1700" t="n">
+        <v>11</v>
+      </c>
+      <c r="L1700" t="n">
+        <v>15</v>
+      </c>
+      <c r="M1700" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1700" t="n">
+        <v>23</v>
+      </c>
+      <c r="O1700" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1700" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1700" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1700" t="inlineStr"/>
+    </row>
+    <row r="1701">
+      <c r="A1701" s="2" t="n">
+        <v>45446.51041666666</v>
+      </c>
+      <c r="B1701" t="n">
+        <v>15.89999961853027</v>
+      </c>
+      <c r="C1701" t="n">
+        <v>16.14999961853027</v>
+      </c>
+      <c r="D1701" t="n">
+        <v>15.85000038146973</v>
+      </c>
+      <c r="E1701" t="n">
+        <v>16.10000038146973</v>
+      </c>
+      <c r="F1701" t="n">
+        <v>16.10000038146973</v>
+      </c>
+      <c r="G1701" t="n">
+        <v>146010040</v>
+      </c>
+      <c r="H1701" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1701" t="n">
+        <v>6</v>
+      </c>
+      <c r="J1701" t="n">
+        <v>3</v>
+      </c>
+      <c r="K1701" t="n">
+        <v>12</v>
+      </c>
+      <c r="L1701" t="n">
+        <v>15</v>
+      </c>
+      <c r="M1701" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1701" t="n">
+        <v>23</v>
+      </c>
+      <c r="O1701" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1701" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q1701" t="n">
+        <v>1</v>
+      </c>
+      <c r="R1701" t="inlineStr"/>
+    </row>
+    <row r="1702">
+      <c r="A1702" s="2" t="n">
+        <v>45446.55208333334</v>
+      </c>
+      <c r="B1702" t="n">
+        <v>16.04999923706055</v>
+      </c>
+      <c r="C1702" t="n">
+        <v>16.20000076293945</v>
+      </c>
+      <c r="D1702" t="n">
+        <v>16</v>
+      </c>
+      <c r="E1702" t="n">
+        <v>16.10000038146973</v>
+      </c>
+      <c r="F1702" t="n">
+        <v>16.10000038146973</v>
+      </c>
+      <c r="G1702" t="n">
+        <v>82463603</v>
+      </c>
+      <c r="H1702" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1702" t="n">
+        <v>6</v>
+      </c>
+      <c r="J1702" t="n">
+        <v>3</v>
+      </c>
+      <c r="K1702" t="n">
+        <v>13</v>
+      </c>
+      <c r="L1702" t="n">
+        <v>15</v>
+      </c>
+      <c r="M1702" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1702" t="n">
+        <v>23</v>
+      </c>
+      <c r="O1702" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1702" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1702" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1702" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/stock_historical_data/60m/IDEA.NS.xlsx
+++ b/stock_historical_data/60m/IDEA.NS.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:R1702"/>
+  <dimension ref="A1:R1704"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -95613,7 +95613,9 @@
       <c r="Q1699" t="n">
         <v>0</v>
       </c>
-      <c r="R1699" t="inlineStr"/>
+      <c r="R1699" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1700">
       <c r="A1700" s="2" t="n">
@@ -95667,7 +95669,9 @@
       <c r="Q1700" t="n">
         <v>0</v>
       </c>
-      <c r="R1700" t="inlineStr"/>
+      <c r="R1700" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1701">
       <c r="A1701" s="2" t="n">
@@ -95721,7 +95725,9 @@
       <c r="Q1701" t="n">
         <v>1</v>
       </c>
-      <c r="R1701" t="inlineStr"/>
+      <c r="R1701" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="1702">
       <c r="A1702" s="2" t="n">
@@ -95775,7 +95781,117 @@
       <c r="Q1702" t="n">
         <v>0</v>
       </c>
-      <c r="R1702" t="inlineStr"/>
+      <c r="R1702" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1703">
+      <c r="A1703" s="2" t="n">
+        <v>45446.59375</v>
+      </c>
+      <c r="B1703" t="n">
+        <v>16.14999961853027</v>
+      </c>
+      <c r="C1703" t="n">
+        <v>16.14999961853027</v>
+      </c>
+      <c r="D1703" t="n">
+        <v>15.94999980926514</v>
+      </c>
+      <c r="E1703" t="n">
+        <v>16.04999923706055</v>
+      </c>
+      <c r="F1703" t="n">
+        <v>16.04999923706055</v>
+      </c>
+      <c r="G1703" t="n">
+        <v>203579806</v>
+      </c>
+      <c r="H1703" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1703" t="n">
+        <v>6</v>
+      </c>
+      <c r="J1703" t="n">
+        <v>3</v>
+      </c>
+      <c r="K1703" t="n">
+        <v>14</v>
+      </c>
+      <c r="L1703" t="n">
+        <v>15</v>
+      </c>
+      <c r="M1703" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1703" t="n">
+        <v>23</v>
+      </c>
+      <c r="O1703" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1703" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1703" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1703" t="inlineStr"/>
+    </row>
+    <row r="1704">
+      <c r="A1704" s="2" t="n">
+        <v>45446.63541666666</v>
+      </c>
+      <c r="B1704" t="n">
+        <v>16.04999923706055</v>
+      </c>
+      <c r="C1704" t="n">
+        <v>16.10000038146973</v>
+      </c>
+      <c r="D1704" t="n">
+        <v>16</v>
+      </c>
+      <c r="E1704" t="n">
+        <v>16</v>
+      </c>
+      <c r="F1704" t="n">
+        <v>16</v>
+      </c>
+      <c r="G1704" t="n">
+        <v>66672691</v>
+      </c>
+      <c r="H1704" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1704" t="n">
+        <v>6</v>
+      </c>
+      <c r="J1704" t="n">
+        <v>3</v>
+      </c>
+      <c r="K1704" t="n">
+        <v>15</v>
+      </c>
+      <c r="L1704" t="n">
+        <v>15</v>
+      </c>
+      <c r="M1704" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1704" t="n">
+        <v>23</v>
+      </c>
+      <c r="O1704" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1704" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1704" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1704" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/stock_historical_data/60m/IDEA.NS.xlsx
+++ b/stock_historical_data/60m/IDEA.NS.xlsx
@@ -95837,7 +95837,9 @@
       <c r="Q1703" t="n">
         <v>0</v>
       </c>
-      <c r="R1703" t="inlineStr"/>
+      <c r="R1703" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1704">
       <c r="A1704" s="2" t="n">
@@ -95891,7 +95893,9 @@
       <c r="Q1704" t="n">
         <v>0</v>
       </c>
-      <c r="R1704" t="inlineStr"/>
+      <c r="R1704" t="n">
+        <v>0</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/stock_historical_data/60m/IDEA.NS.xlsx
+++ b/stock_historical_data/60m/IDEA.NS.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:R1704"/>
+  <dimension ref="A1:R1710"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -95549,7 +95549,7 @@
         <v>23</v>
       </c>
       <c r="O1698" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P1698" t="n">
         <v>0</v>
@@ -95896,6 +95896,330 @@
       <c r="R1704" t="n">
         <v>0</v>
       </c>
+    </row>
+    <row r="1705">
+      <c r="A1705" s="2" t="n">
+        <v>45447.38541666666</v>
+      </c>
+      <c r="B1705" t="n">
+        <v>15.60000038146973</v>
+      </c>
+      <c r="C1705" t="n">
+        <v>15.60000038146973</v>
+      </c>
+      <c r="D1705" t="n">
+        <v>14.39999961853027</v>
+      </c>
+      <c r="E1705" t="n">
+        <v>15.14999961853027</v>
+      </c>
+      <c r="F1705" t="n">
+        <v>15.14999961853027</v>
+      </c>
+      <c r="G1705" t="n">
+        <v>710305181</v>
+      </c>
+      <c r="H1705" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1705" t="n">
+        <v>6</v>
+      </c>
+      <c r="J1705" t="n">
+        <v>4</v>
+      </c>
+      <c r="K1705" t="n">
+        <v>9</v>
+      </c>
+      <c r="L1705" t="n">
+        <v>15</v>
+      </c>
+      <c r="M1705" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1705" t="n">
+        <v>23</v>
+      </c>
+      <c r="O1705" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1705" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1705" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1705" t="inlineStr"/>
+    </row>
+    <row r="1706">
+      <c r="A1706" s="2" t="n">
+        <v>45447.42708333334</v>
+      </c>
+      <c r="B1706" t="n">
+        <v>15.14999961853027</v>
+      </c>
+      <c r="C1706" t="n">
+        <v>15.14999961853027</v>
+      </c>
+      <c r="D1706" t="n">
+        <v>13.60000038146973</v>
+      </c>
+      <c r="E1706" t="n">
+        <v>13.60000038146973</v>
+      </c>
+      <c r="F1706" t="n">
+        <v>13.60000038146973</v>
+      </c>
+      <c r="G1706" t="n">
+        <v>660337619</v>
+      </c>
+      <c r="H1706" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1706" t="n">
+        <v>6</v>
+      </c>
+      <c r="J1706" t="n">
+        <v>4</v>
+      </c>
+      <c r="K1706" t="n">
+        <v>10</v>
+      </c>
+      <c r="L1706" t="n">
+        <v>15</v>
+      </c>
+      <c r="M1706" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1706" t="n">
+        <v>23</v>
+      </c>
+      <c r="O1706" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1706" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1706" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1706" t="inlineStr"/>
+    </row>
+    <row r="1707">
+      <c r="A1707" s="2" t="n">
+        <v>45447.46875</v>
+      </c>
+      <c r="B1707" t="n">
+        <v>13.60000038146973</v>
+      </c>
+      <c r="C1707" t="n">
+        <v>13.94999980926514</v>
+      </c>
+      <c r="D1707" t="n">
+        <v>12.80000019073486</v>
+      </c>
+      <c r="E1707" t="n">
+        <v>12.80000019073486</v>
+      </c>
+      <c r="F1707" t="n">
+        <v>12.80000019073486</v>
+      </c>
+      <c r="G1707" t="n">
+        <v>553788095</v>
+      </c>
+      <c r="H1707" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1707" t="n">
+        <v>6</v>
+      </c>
+      <c r="J1707" t="n">
+        <v>4</v>
+      </c>
+      <c r="K1707" t="n">
+        <v>11</v>
+      </c>
+      <c r="L1707" t="n">
+        <v>15</v>
+      </c>
+      <c r="M1707" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1707" t="n">
+        <v>23</v>
+      </c>
+      <c r="O1707" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1707" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1707" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1707" t="inlineStr"/>
+    </row>
+    <row r="1708">
+      <c r="A1708" s="2" t="n">
+        <v>45447.51041666666</v>
+      </c>
+      <c r="B1708" t="n">
+        <v>12.80000019073486</v>
+      </c>
+      <c r="C1708" t="n">
+        <v>13.69999980926514</v>
+      </c>
+      <c r="D1708" t="n">
+        <v>12.10000038146973</v>
+      </c>
+      <c r="E1708" t="n">
+        <v>13.60000038146973</v>
+      </c>
+      <c r="F1708" t="n">
+        <v>13.60000038146973</v>
+      </c>
+      <c r="G1708" t="n">
+        <v>417133271</v>
+      </c>
+      <c r="H1708" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1708" t="n">
+        <v>6</v>
+      </c>
+      <c r="J1708" t="n">
+        <v>4</v>
+      </c>
+      <c r="K1708" t="n">
+        <v>12</v>
+      </c>
+      <c r="L1708" t="n">
+        <v>15</v>
+      </c>
+      <c r="M1708" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1708" t="n">
+        <v>23</v>
+      </c>
+      <c r="O1708" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1708" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1708" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1708" t="inlineStr"/>
+    </row>
+    <row r="1709">
+      <c r="A1709" s="2" t="n">
+        <v>45447.55208333334</v>
+      </c>
+      <c r="B1709" t="n">
+        <v>13.60000038146973</v>
+      </c>
+      <c r="C1709" t="n">
+        <v>14</v>
+      </c>
+      <c r="D1709" t="n">
+        <v>13.39999961853027</v>
+      </c>
+      <c r="E1709" t="n">
+        <v>13.5</v>
+      </c>
+      <c r="F1709" t="n">
+        <v>13.5</v>
+      </c>
+      <c r="G1709" t="n">
+        <v>293982262</v>
+      </c>
+      <c r="H1709" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1709" t="n">
+        <v>6</v>
+      </c>
+      <c r="J1709" t="n">
+        <v>4</v>
+      </c>
+      <c r="K1709" t="n">
+        <v>13</v>
+      </c>
+      <c r="L1709" t="n">
+        <v>15</v>
+      </c>
+      <c r="M1709" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1709" t="n">
+        <v>23</v>
+      </c>
+      <c r="O1709" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1709" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1709" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1709" t="inlineStr"/>
+    </row>
+    <row r="1710">
+      <c r="A1710" s="2" t="n">
+        <v>45447.59375</v>
+      </c>
+      <c r="B1710" t="n">
+        <v>13.5</v>
+      </c>
+      <c r="C1710" t="n">
+        <v>13.60000038146973</v>
+      </c>
+      <c r="D1710" t="n">
+        <v>13.10000038146973</v>
+      </c>
+      <c r="E1710" t="n">
+        <v>13.19999980926514</v>
+      </c>
+      <c r="F1710" t="n">
+        <v>13.19999980926514</v>
+      </c>
+      <c r="G1710" t="n">
+        <v>174062818</v>
+      </c>
+      <c r="H1710" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1710" t="n">
+        <v>6</v>
+      </c>
+      <c r="J1710" t="n">
+        <v>4</v>
+      </c>
+      <c r="K1710" t="n">
+        <v>14</v>
+      </c>
+      <c r="L1710" t="n">
+        <v>15</v>
+      </c>
+      <c r="M1710" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1710" t="n">
+        <v>23</v>
+      </c>
+      <c r="O1710" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1710" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1710" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1710" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/stock_historical_data/60m/IDEA.NS.xlsx
+++ b/stock_historical_data/60m/IDEA.NS.xlsx
@@ -95557,7 +95557,9 @@
       <c r="Q1698" t="n">
         <v>0</v>
       </c>
-      <c r="R1698" t="inlineStr"/>
+      <c r="R1698" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="1699">
       <c r="A1699" s="2" t="n">
@@ -95611,7 +95613,9 @@
       <c r="Q1699" t="n">
         <v>0</v>
       </c>
-      <c r="R1699" t="inlineStr"/>
+      <c r="R1699" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1700">
       <c r="A1700" s="2" t="n">
@@ -95665,7 +95669,9 @@
       <c r="Q1700" t="n">
         <v>0</v>
       </c>
-      <c r="R1700" t="inlineStr"/>
+      <c r="R1700" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1701">
       <c r="A1701" s="2" t="n">
@@ -95719,7 +95725,9 @@
       <c r="Q1701" t="n">
         <v>0</v>
       </c>
-      <c r="R1701" t="inlineStr"/>
+      <c r="R1701" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1702">
       <c r="A1702" s="2" t="n">
@@ -95773,7 +95781,9 @@
       <c r="Q1702" t="n">
         <v>0</v>
       </c>
-      <c r="R1702" t="inlineStr"/>
+      <c r="R1702" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1703">
       <c r="A1703" s="2" t="n">
@@ -95827,7 +95837,9 @@
       <c r="Q1703" t="n">
         <v>0</v>
       </c>
-      <c r="R1703" t="inlineStr"/>
+      <c r="R1703" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1704">
       <c r="A1704" s="2" t="n">
@@ -95881,7 +95893,9 @@
       <c r="Q1704" t="n">
         <v>0</v>
       </c>
-      <c r="R1704" t="inlineStr"/>
+      <c r="R1704" t="n">
+        <v>0</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/stock_historical_data/60m/IDEA.NS.xlsx
+++ b/stock_historical_data/60m/IDEA.NS.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:R1704"/>
+  <dimension ref="A1:R1705"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -3547,7 +3547,7 @@
         <v>2</v>
       </c>
       <c r="Q55" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="R55" t="n">
         <v>2</v>
@@ -95896,6 +95896,60 @@
       <c r="R1704" t="n">
         <v>0</v>
       </c>
+    </row>
+    <row r="1705">
+      <c r="A1705" s="2" t="n">
+        <v>45450.38541666666</v>
+      </c>
+      <c r="B1705" t="n">
+        <v>15.05000019073486</v>
+      </c>
+      <c r="C1705" t="n">
+        <v>15.55000019073486</v>
+      </c>
+      <c r="D1705" t="n">
+        <v>14.89999961853027</v>
+      </c>
+      <c r="E1705" t="n">
+        <v>15.5</v>
+      </c>
+      <c r="F1705" t="n">
+        <v>15.5</v>
+      </c>
+      <c r="G1705" t="n">
+        <v>193165082</v>
+      </c>
+      <c r="H1705" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1705" t="n">
+        <v>6</v>
+      </c>
+      <c r="J1705" t="n">
+        <v>7</v>
+      </c>
+      <c r="K1705" t="n">
+        <v>9</v>
+      </c>
+      <c r="L1705" t="n">
+        <v>15</v>
+      </c>
+      <c r="M1705" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1705" t="n">
+        <v>23</v>
+      </c>
+      <c r="O1705" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1705" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1705" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1705" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/stock_historical_data/60m/IDEA.NS.xlsx
+++ b/stock_historical_data/60m/IDEA.NS.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:R1705"/>
+  <dimension ref="A1:R1711"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -3547,7 +3547,7 @@
         <v>2</v>
       </c>
       <c r="Q55" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="R55" t="n">
         <v>2</v>
@@ -95949,7 +95949,333 @@
       <c r="Q1705" t="n">
         <v>0</v>
       </c>
-      <c r="R1705" t="inlineStr"/>
+      <c r="R1705" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1706">
+      <c r="A1706" s="2" t="n">
+        <v>45450.42708333334</v>
+      </c>
+      <c r="B1706" t="n">
+        <v>15.35000038146973</v>
+      </c>
+      <c r="C1706" t="n">
+        <v>15.64999961853027</v>
+      </c>
+      <c r="D1706" t="n">
+        <v>15.30000019073486</v>
+      </c>
+      <c r="E1706" t="n">
+        <v>15.39999961853027</v>
+      </c>
+      <c r="F1706" t="n">
+        <v>15.39999961853027</v>
+      </c>
+      <c r="G1706" t="n">
+        <v>140619070</v>
+      </c>
+      <c r="H1706" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1706" t="n">
+        <v>6</v>
+      </c>
+      <c r="J1706" t="n">
+        <v>7</v>
+      </c>
+      <c r="K1706" t="n">
+        <v>10</v>
+      </c>
+      <c r="L1706" t="n">
+        <v>15</v>
+      </c>
+      <c r="M1706" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1706" t="n">
+        <v>23</v>
+      </c>
+      <c r="O1706" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1706" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1706" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1706" t="inlineStr"/>
+    </row>
+    <row r="1707">
+      <c r="A1707" s="2" t="n">
+        <v>45450.46875</v>
+      </c>
+      <c r="B1707" t="n">
+        <v>15.39999961853027</v>
+      </c>
+      <c r="C1707" t="n">
+        <v>15.64999961853027</v>
+      </c>
+      <c r="D1707" t="n">
+        <v>15.35000038146973</v>
+      </c>
+      <c r="E1707" t="n">
+        <v>15.60000038146973</v>
+      </c>
+      <c r="F1707" t="n">
+        <v>15.60000038146973</v>
+      </c>
+      <c r="G1707" t="n">
+        <v>95863099</v>
+      </c>
+      <c r="H1707" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1707" t="n">
+        <v>6</v>
+      </c>
+      <c r="J1707" t="n">
+        <v>7</v>
+      </c>
+      <c r="K1707" t="n">
+        <v>11</v>
+      </c>
+      <c r="L1707" t="n">
+        <v>15</v>
+      </c>
+      <c r="M1707" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1707" t="n">
+        <v>23</v>
+      </c>
+      <c r="O1707" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1707" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1707" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1707" t="inlineStr"/>
+    </row>
+    <row r="1708">
+      <c r="A1708" s="2" t="n">
+        <v>45450.51041666666</v>
+      </c>
+      <c r="B1708" t="n">
+        <v>15.55000019073486</v>
+      </c>
+      <c r="C1708" t="n">
+        <v>15.75</v>
+      </c>
+      <c r="D1708" t="n">
+        <v>15.5</v>
+      </c>
+      <c r="E1708" t="n">
+        <v>15.60000038146973</v>
+      </c>
+      <c r="F1708" t="n">
+        <v>15.60000038146973</v>
+      </c>
+      <c r="G1708" t="n">
+        <v>120558435</v>
+      </c>
+      <c r="H1708" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1708" t="n">
+        <v>6</v>
+      </c>
+      <c r="J1708" t="n">
+        <v>7</v>
+      </c>
+      <c r="K1708" t="n">
+        <v>12</v>
+      </c>
+      <c r="L1708" t="n">
+        <v>15</v>
+      </c>
+      <c r="M1708" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1708" t="n">
+        <v>23</v>
+      </c>
+      <c r="O1708" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1708" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1708" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1708" t="inlineStr"/>
+    </row>
+    <row r="1709">
+      <c r="A1709" s="2" t="n">
+        <v>45450.55208333334</v>
+      </c>
+      <c r="B1709" t="n">
+        <v>15.64999961853027</v>
+      </c>
+      <c r="C1709" t="n">
+        <v>16.04999923706055</v>
+      </c>
+      <c r="D1709" t="n">
+        <v>15.60000038146973</v>
+      </c>
+      <c r="E1709" t="n">
+        <v>15.85000038146973</v>
+      </c>
+      <c r="F1709" t="n">
+        <v>15.85000038146973</v>
+      </c>
+      <c r="G1709" t="n">
+        <v>230410186</v>
+      </c>
+      <c r="H1709" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1709" t="n">
+        <v>6</v>
+      </c>
+      <c r="J1709" t="n">
+        <v>7</v>
+      </c>
+      <c r="K1709" t="n">
+        <v>13</v>
+      </c>
+      <c r="L1709" t="n">
+        <v>15</v>
+      </c>
+      <c r="M1709" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1709" t="n">
+        <v>23</v>
+      </c>
+      <c r="O1709" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1709" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1709" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1709" t="inlineStr"/>
+    </row>
+    <row r="1710">
+      <c r="A1710" s="2" t="n">
+        <v>45450.59375</v>
+      </c>
+      <c r="B1710" t="n">
+        <v>15.85000038146973</v>
+      </c>
+      <c r="C1710" t="n">
+        <v>16.04999923706055</v>
+      </c>
+      <c r="D1710" t="n">
+        <v>15.75</v>
+      </c>
+      <c r="E1710" t="n">
+        <v>15.85000038146973</v>
+      </c>
+      <c r="F1710" t="n">
+        <v>15.85000038146973</v>
+      </c>
+      <c r="G1710" t="n">
+        <v>221314139</v>
+      </c>
+      <c r="H1710" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1710" t="n">
+        <v>6</v>
+      </c>
+      <c r="J1710" t="n">
+        <v>7</v>
+      </c>
+      <c r="K1710" t="n">
+        <v>14</v>
+      </c>
+      <c r="L1710" t="n">
+        <v>15</v>
+      </c>
+      <c r="M1710" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1710" t="n">
+        <v>23</v>
+      </c>
+      <c r="O1710" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1710" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1710" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1710" t="inlineStr"/>
+    </row>
+    <row r="1711">
+      <c r="A1711" s="2" t="n">
+        <v>45450.63541666666</v>
+      </c>
+      <c r="B1711" t="n">
+        <v>15.85000038146973</v>
+      </c>
+      <c r="C1711" t="n">
+        <v>15.89999961853027</v>
+      </c>
+      <c r="D1711" t="n">
+        <v>15.75</v>
+      </c>
+      <c r="E1711" t="n">
+        <v>15.85000038146973</v>
+      </c>
+      <c r="F1711" t="n">
+        <v>15.85000038146973</v>
+      </c>
+      <c r="G1711" t="n">
+        <v>80490319</v>
+      </c>
+      <c r="H1711" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1711" t="n">
+        <v>6</v>
+      </c>
+      <c r="J1711" t="n">
+        <v>7</v>
+      </c>
+      <c r="K1711" t="n">
+        <v>15</v>
+      </c>
+      <c r="L1711" t="n">
+        <v>15</v>
+      </c>
+      <c r="M1711" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1711" t="n">
+        <v>23</v>
+      </c>
+      <c r="O1711" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1711" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1711" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1711" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/stock_historical_data/60m/IDEA.NS.xlsx
+++ b/stock_historical_data/60m/IDEA.NS.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:R1702"/>
+  <dimension ref="A1:R1704"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -95557,7 +95557,9 @@
       <c r="Q1698" t="n">
         <v>0</v>
       </c>
-      <c r="R1698" t="inlineStr"/>
+      <c r="R1698" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1699">
       <c r="A1699" s="2" t="n">
@@ -95611,7 +95613,9 @@
       <c r="Q1699" t="n">
         <v>0</v>
       </c>
-      <c r="R1699" t="inlineStr"/>
+      <c r="R1699" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1700">
       <c r="A1700" s="2" t="n">
@@ -95665,7 +95669,9 @@
       <c r="Q1700" t="n">
         <v>0</v>
       </c>
-      <c r="R1700" t="inlineStr"/>
+      <c r="R1700" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1701">
       <c r="A1701" s="2" t="n">
@@ -95719,7 +95725,9 @@
       <c r="Q1701" t="n">
         <v>0</v>
       </c>
-      <c r="R1701" t="inlineStr"/>
+      <c r="R1701" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1702">
       <c r="A1702" s="2" t="n">
@@ -95773,7 +95781,117 @@
       <c r="Q1702" t="n">
         <v>0</v>
       </c>
-      <c r="R1702" t="inlineStr"/>
+      <c r="R1702" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1703">
+      <c r="A1703" s="2" t="n">
+        <v>45453.59375</v>
+      </c>
+      <c r="B1703" t="n">
+        <v>15.90999984741211</v>
+      </c>
+      <c r="C1703" t="n">
+        <v>15.98999977111816</v>
+      </c>
+      <c r="D1703" t="n">
+        <v>15.76000022888184</v>
+      </c>
+      <c r="E1703" t="n">
+        <v>15.85000038146973</v>
+      </c>
+      <c r="F1703" t="n">
+        <v>15.85000038146973</v>
+      </c>
+      <c r="G1703" t="n">
+        <v>158431834</v>
+      </c>
+      <c r="H1703" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1703" t="n">
+        <v>6</v>
+      </c>
+      <c r="J1703" t="n">
+        <v>10</v>
+      </c>
+      <c r="K1703" t="n">
+        <v>14</v>
+      </c>
+      <c r="L1703" t="n">
+        <v>15</v>
+      </c>
+      <c r="M1703" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1703" t="n">
+        <v>24</v>
+      </c>
+      <c r="O1703" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1703" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1703" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1703" t="inlineStr"/>
+    </row>
+    <row r="1704">
+      <c r="A1704" s="2" t="n">
+        <v>45453.63541666666</v>
+      </c>
+      <c r="B1704" t="n">
+        <v>15.85999965667725</v>
+      </c>
+      <c r="C1704" t="n">
+        <v>15.85999965667725</v>
+      </c>
+      <c r="D1704" t="n">
+        <v>15.76000022888184</v>
+      </c>
+      <c r="E1704" t="n">
+        <v>15.8100004196167</v>
+      </c>
+      <c r="F1704" t="n">
+        <v>15.8100004196167</v>
+      </c>
+      <c r="G1704" t="n">
+        <v>73609679</v>
+      </c>
+      <c r="H1704" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1704" t="n">
+        <v>6</v>
+      </c>
+      <c r="J1704" t="n">
+        <v>10</v>
+      </c>
+      <c r="K1704" t="n">
+        <v>15</v>
+      </c>
+      <c r="L1704" t="n">
+        <v>15</v>
+      </c>
+      <c r="M1704" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1704" t="n">
+        <v>24</v>
+      </c>
+      <c r="O1704" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1704" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1704" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1704" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/stock_historical_data/60m/IDEA.NS.xlsx
+++ b/stock_historical_data/60m/IDEA.NS.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:R1704"/>
+  <dimension ref="A1:R1711"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -6126,7 +6126,7 @@
         <v>2</v>
       </c>
       <c r="R101" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="102">
@@ -7078,7 +7078,7 @@
         <v>2</v>
       </c>
       <c r="R118" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="119">
@@ -12510,7 +12510,7 @@
         <v>1</v>
       </c>
       <c r="R215" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="216">
@@ -14134,7 +14134,7 @@
         <v>2</v>
       </c>
       <c r="R244" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="245">
@@ -16934,7 +16934,7 @@
         <v>0</v>
       </c>
       <c r="R294" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="295">
@@ -20518,7 +20518,7 @@
         <v>1</v>
       </c>
       <c r="R358" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="359">
@@ -20854,7 +20854,7 @@
         <v>2</v>
       </c>
       <c r="R364" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="365">
@@ -23822,7 +23822,7 @@
         <v>1</v>
       </c>
       <c r="R417" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="418">
@@ -24046,7 +24046,7 @@
         <v>2</v>
       </c>
       <c r="R421" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="422">
@@ -26398,7 +26398,7 @@
         <v>2</v>
       </c>
       <c r="R463" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="464">
@@ -28246,7 +28246,7 @@
         <v>2</v>
       </c>
       <c r="R496" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="497">
@@ -29198,7 +29198,7 @@
         <v>0</v>
       </c>
       <c r="R513" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="514">
@@ -31382,7 +31382,7 @@
         <v>0</v>
       </c>
       <c r="R552" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="553">
@@ -34910,7 +34910,7 @@
         <v>2</v>
       </c>
       <c r="R615" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="616">
@@ -36142,7 +36142,7 @@
         <v>1</v>
       </c>
       <c r="R637" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="638">
@@ -36198,7 +36198,7 @@
         <v>1</v>
       </c>
       <c r="R638" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="639">
@@ -41182,7 +41182,7 @@
         <v>1</v>
       </c>
       <c r="R727" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="728">
@@ -41574,7 +41574,7 @@
         <v>2</v>
       </c>
       <c r="R734" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="735">
@@ -42358,7 +42358,7 @@
         <v>0</v>
       </c>
       <c r="R748" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="749">
@@ -44318,7 +44318,7 @@
         <v>2</v>
       </c>
       <c r="R783" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="784">
@@ -45774,7 +45774,7 @@
         <v>2</v>
       </c>
       <c r="R809" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="810">
@@ -46278,7 +46278,7 @@
         <v>1</v>
       </c>
       <c r="R818" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="819">
@@ -47174,7 +47174,7 @@
         <v>1</v>
       </c>
       <c r="R834" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="835">
@@ -47454,7 +47454,7 @@
         <v>2</v>
       </c>
       <c r="R839" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="840">
@@ -49078,7 +49078,7 @@
         <v>0</v>
       </c>
       <c r="R868" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="869">
@@ -49974,7 +49974,7 @@
         <v>2</v>
       </c>
       <c r="R884" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="885">
@@ -52158,7 +52158,7 @@
         <v>2</v>
       </c>
       <c r="R923" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="924">
@@ -53334,7 +53334,7 @@
         <v>2</v>
       </c>
       <c r="R944" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="945">
@@ -54790,7 +54790,7 @@
         <v>1</v>
       </c>
       <c r="R970" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="971">
@@ -56078,7 +56078,7 @@
         <v>1</v>
       </c>
       <c r="R993" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="994">
@@ -57422,7 +57422,7 @@
         <v>0</v>
       </c>
       <c r="R1017" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1018">
@@ -58206,7 +58206,7 @@
         <v>1</v>
       </c>
       <c r="R1031" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1032">
@@ -59494,7 +59494,7 @@
         <v>0</v>
       </c>
       <c r="R1054" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1055">
@@ -61566,7 +61566,7 @@
         <v>1</v>
       </c>
       <c r="R1091" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1092">
@@ -62238,7 +62238,7 @@
         <v>0</v>
       </c>
       <c r="R1103" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1104">
@@ -63638,7 +63638,7 @@
         <v>0</v>
       </c>
       <c r="R1128" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1129">
@@ -63918,7 +63918,7 @@
         <v>2</v>
       </c>
       <c r="R1133" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1134">
@@ -65374,7 +65374,7 @@
         <v>2</v>
       </c>
       <c r="R1159" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1160">
@@ -65934,7 +65934,7 @@
         <v>1</v>
       </c>
       <c r="R1169" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1170">
@@ -69406,7 +69406,7 @@
         <v>1</v>
       </c>
       <c r="R1231" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1232">
@@ -79990,7 +79990,7 @@
         <v>2</v>
       </c>
       <c r="R1420" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1421">
@@ -80774,7 +80774,7 @@
         <v>2</v>
       </c>
       <c r="R1434" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1435">
@@ -82342,7 +82342,7 @@
         <v>2</v>
       </c>
       <c r="R1462" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1463">
@@ -83294,7 +83294,7 @@
         <v>2</v>
       </c>
       <c r="R1479" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1480">
@@ -84470,7 +84470,7 @@
         <v>2</v>
       </c>
       <c r="R1500" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1501">
@@ -86374,7 +86374,7 @@
         <v>2</v>
       </c>
       <c r="R1534" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1535">
@@ -87942,7 +87942,7 @@
         <v>2</v>
       </c>
       <c r="R1562" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1563">
@@ -88782,7 +88782,7 @@
         <v>1</v>
       </c>
       <c r="R1577" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1578">
@@ -90126,7 +90126,7 @@
         <v>1</v>
       </c>
       <c r="R1601" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1602">
@@ -94774,7 +94774,7 @@
         <v>0</v>
       </c>
       <c r="R1684" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1685">
@@ -95549,7 +95549,7 @@
         <v>24</v>
       </c>
       <c r="O1698" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P1698" t="n">
         <v>0</v>
@@ -95837,7 +95837,9 @@
       <c r="Q1703" t="n">
         <v>0</v>
       </c>
-      <c r="R1703" t="inlineStr"/>
+      <c r="R1703" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1704">
       <c r="A1704" s="2" t="n">
@@ -95891,7 +95893,387 @@
       <c r="Q1704" t="n">
         <v>0</v>
       </c>
-      <c r="R1704" t="inlineStr"/>
+      <c r="R1704" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1705">
+      <c r="A1705" s="2" t="n">
+        <v>45454.38541666666</v>
+      </c>
+      <c r="B1705" t="n">
+        <v>15.92000007629395</v>
+      </c>
+      <c r="C1705" t="n">
+        <v>16</v>
+      </c>
+      <c r="D1705" t="n">
+        <v>15.64999961853027</v>
+      </c>
+      <c r="E1705" t="n">
+        <v>15.75</v>
+      </c>
+      <c r="F1705" t="n">
+        <v>15.75</v>
+      </c>
+      <c r="G1705" t="n">
+        <v>0</v>
+      </c>
+      <c r="H1705" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1705" t="n">
+        <v>6</v>
+      </c>
+      <c r="J1705" t="n">
+        <v>11</v>
+      </c>
+      <c r="K1705" t="n">
+        <v>9</v>
+      </c>
+      <c r="L1705" t="n">
+        <v>15</v>
+      </c>
+      <c r="M1705" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1705" t="n">
+        <v>24</v>
+      </c>
+      <c r="O1705" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1705" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1705" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1705" t="inlineStr"/>
+    </row>
+    <row r="1706">
+      <c r="A1706" s="2" t="n">
+        <v>45454.42708333334</v>
+      </c>
+      <c r="B1706" t="n">
+        <v>15.73999977111816</v>
+      </c>
+      <c r="C1706" t="n">
+        <v>15.77000045776367</v>
+      </c>
+      <c r="D1706" t="n">
+        <v>15.60999965667725</v>
+      </c>
+      <c r="E1706" t="n">
+        <v>15.65999984741211</v>
+      </c>
+      <c r="F1706" t="n">
+        <v>15.65999984741211</v>
+      </c>
+      <c r="G1706" t="n">
+        <v>105109059</v>
+      </c>
+      <c r="H1706" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1706" t="n">
+        <v>6</v>
+      </c>
+      <c r="J1706" t="n">
+        <v>11</v>
+      </c>
+      <c r="K1706" t="n">
+        <v>10</v>
+      </c>
+      <c r="L1706" t="n">
+        <v>15</v>
+      </c>
+      <c r="M1706" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1706" t="n">
+        <v>24</v>
+      </c>
+      <c r="O1706" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1706" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1706" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1706" t="inlineStr"/>
+    </row>
+    <row r="1707">
+      <c r="A1707" s="2" t="n">
+        <v>45454.46875</v>
+      </c>
+      <c r="B1707" t="n">
+        <v>15.65999984741211</v>
+      </c>
+      <c r="C1707" t="n">
+        <v>15.72000026702881</v>
+      </c>
+      <c r="D1707" t="n">
+        <v>15.63000011444092</v>
+      </c>
+      <c r="E1707" t="n">
+        <v>15.69999980926514</v>
+      </c>
+      <c r="F1707" t="n">
+        <v>15.69999980926514</v>
+      </c>
+      <c r="G1707" t="n">
+        <v>58976504</v>
+      </c>
+      <c r="H1707" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1707" t="n">
+        <v>6</v>
+      </c>
+      <c r="J1707" t="n">
+        <v>11</v>
+      </c>
+      <c r="K1707" t="n">
+        <v>11</v>
+      </c>
+      <c r="L1707" t="n">
+        <v>15</v>
+      </c>
+      <c r="M1707" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1707" t="n">
+        <v>24</v>
+      </c>
+      <c r="O1707" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1707" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1707" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1707" t="inlineStr"/>
+    </row>
+    <row r="1708">
+      <c r="A1708" s="2" t="n">
+        <v>45454.51041666666</v>
+      </c>
+      <c r="B1708" t="n">
+        <v>15.69999980926514</v>
+      </c>
+      <c r="C1708" t="n">
+        <v>16.25</v>
+      </c>
+      <c r="D1708" t="n">
+        <v>15.67000007629395</v>
+      </c>
+      <c r="E1708" t="n">
+        <v>16.1299991607666</v>
+      </c>
+      <c r="F1708" t="n">
+        <v>16.1299991607666</v>
+      </c>
+      <c r="G1708" t="n">
+        <v>296238467</v>
+      </c>
+      <c r="H1708" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1708" t="n">
+        <v>6</v>
+      </c>
+      <c r="J1708" t="n">
+        <v>11</v>
+      </c>
+      <c r="K1708" t="n">
+        <v>12</v>
+      </c>
+      <c r="L1708" t="n">
+        <v>15</v>
+      </c>
+      <c r="M1708" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1708" t="n">
+        <v>24</v>
+      </c>
+      <c r="O1708" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1708" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1708" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1708" t="inlineStr"/>
+    </row>
+    <row r="1709">
+      <c r="A1709" s="2" t="n">
+        <v>45454.55208333334</v>
+      </c>
+      <c r="B1709" t="n">
+        <v>16.1200008392334</v>
+      </c>
+      <c r="C1709" t="n">
+        <v>16.23999977111816</v>
+      </c>
+      <c r="D1709" t="n">
+        <v>16.02000045776367</v>
+      </c>
+      <c r="E1709" t="n">
+        <v>16.03000068664551</v>
+      </c>
+      <c r="F1709" t="n">
+        <v>16.03000068664551</v>
+      </c>
+      <c r="G1709" t="n">
+        <v>178683301</v>
+      </c>
+      <c r="H1709" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1709" t="n">
+        <v>6</v>
+      </c>
+      <c r="J1709" t="n">
+        <v>11</v>
+      </c>
+      <c r="K1709" t="n">
+        <v>13</v>
+      </c>
+      <c r="L1709" t="n">
+        <v>15</v>
+      </c>
+      <c r="M1709" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1709" t="n">
+        <v>24</v>
+      </c>
+      <c r="O1709" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1709" t="n">
+        <v>2</v>
+      </c>
+      <c r="Q1709" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1709" t="inlineStr"/>
+    </row>
+    <row r="1710">
+      <c r="A1710" s="2" t="n">
+        <v>45454.59375</v>
+      </c>
+      <c r="B1710" t="n">
+        <v>16.04000091552734</v>
+      </c>
+      <c r="C1710" t="n">
+        <v>16.30999946594238</v>
+      </c>
+      <c r="D1710" t="n">
+        <v>16.03000068664551</v>
+      </c>
+      <c r="E1710" t="n">
+        <v>16.19000053405762</v>
+      </c>
+      <c r="F1710" t="n">
+        <v>16.19000053405762</v>
+      </c>
+      <c r="G1710" t="n">
+        <v>252611296</v>
+      </c>
+      <c r="H1710" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1710" t="n">
+        <v>6</v>
+      </c>
+      <c r="J1710" t="n">
+        <v>11</v>
+      </c>
+      <c r="K1710" t="n">
+        <v>14</v>
+      </c>
+      <c r="L1710" t="n">
+        <v>15</v>
+      </c>
+      <c r="M1710" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1710" t="n">
+        <v>24</v>
+      </c>
+      <c r="O1710" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1710" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1710" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1710" t="inlineStr"/>
+    </row>
+    <row r="1711">
+      <c r="A1711" s="2" t="n">
+        <v>45454.63541666666</v>
+      </c>
+      <c r="B1711" t="n">
+        <v>16.20000076293945</v>
+      </c>
+      <c r="C1711" t="n">
+        <v>16.30999946594238</v>
+      </c>
+      <c r="D1711" t="n">
+        <v>16.07999992370605</v>
+      </c>
+      <c r="E1711" t="n">
+        <v>16.19000053405762</v>
+      </c>
+      <c r="F1711" t="n">
+        <v>16.19000053405762</v>
+      </c>
+      <c r="G1711" t="n">
+        <v>86221017</v>
+      </c>
+      <c r="H1711" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1711" t="n">
+        <v>6</v>
+      </c>
+      <c r="J1711" t="n">
+        <v>11</v>
+      </c>
+      <c r="K1711" t="n">
+        <v>15</v>
+      </c>
+      <c r="L1711" t="n">
+        <v>15</v>
+      </c>
+      <c r="M1711" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1711" t="n">
+        <v>24</v>
+      </c>
+      <c r="O1711" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1711" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1711" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1711" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/stock_historical_data/60m/IDEA.NS.xlsx
+++ b/stock_historical_data/60m/IDEA.NS.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:R1711"/>
+  <dimension ref="A1:R1718"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -6126,7 +6126,7 @@
         <v>2</v>
       </c>
       <c r="R101" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="102">
@@ -7078,7 +7078,7 @@
         <v>2</v>
       </c>
       <c r="R118" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="119">
@@ -12510,7 +12510,7 @@
         <v>1</v>
       </c>
       <c r="R215" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="216">
@@ -14134,7 +14134,7 @@
         <v>2</v>
       </c>
       <c r="R244" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="245">
@@ -16934,7 +16934,7 @@
         <v>0</v>
       </c>
       <c r="R294" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="295">
@@ -20518,7 +20518,7 @@
         <v>1</v>
       </c>
       <c r="R358" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="359">
@@ -20854,7 +20854,7 @@
         <v>2</v>
       </c>
       <c r="R364" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="365">
@@ -23822,7 +23822,7 @@
         <v>1</v>
       </c>
       <c r="R417" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="418">
@@ -24046,7 +24046,7 @@
         <v>2</v>
       </c>
       <c r="R421" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="422">
@@ -26398,7 +26398,7 @@
         <v>2</v>
       </c>
       <c r="R463" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="464">
@@ -28246,7 +28246,7 @@
         <v>2</v>
       </c>
       <c r="R496" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="497">
@@ -29198,7 +29198,7 @@
         <v>0</v>
       </c>
       <c r="R513" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="514">
@@ -31382,7 +31382,7 @@
         <v>0</v>
       </c>
       <c r="R552" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="553">
@@ -34910,7 +34910,7 @@
         <v>2</v>
       </c>
       <c r="R615" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="616">
@@ -36142,7 +36142,7 @@
         <v>1</v>
       </c>
       <c r="R637" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="638">
@@ -36198,7 +36198,7 @@
         <v>1</v>
       </c>
       <c r="R638" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="639">
@@ -41182,7 +41182,7 @@
         <v>1</v>
       </c>
       <c r="R727" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="728">
@@ -41574,7 +41574,7 @@
         <v>2</v>
       </c>
       <c r="R734" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="735">
@@ -42358,7 +42358,7 @@
         <v>0</v>
       </c>
       <c r="R748" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="749">
@@ -44318,7 +44318,7 @@
         <v>2</v>
       </c>
       <c r="R783" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="784">
@@ -45774,7 +45774,7 @@
         <v>2</v>
       </c>
       <c r="R809" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="810">
@@ -46278,7 +46278,7 @@
         <v>1</v>
       </c>
       <c r="R818" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="819">
@@ -47174,7 +47174,7 @@
         <v>1</v>
       </c>
       <c r="R834" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="835">
@@ -47454,7 +47454,7 @@
         <v>2</v>
       </c>
       <c r="R839" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="840">
@@ -49078,7 +49078,7 @@
         <v>0</v>
       </c>
       <c r="R868" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="869">
@@ -49974,7 +49974,7 @@
         <v>2</v>
       </c>
       <c r="R884" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="885">
@@ -52158,7 +52158,7 @@
         <v>2</v>
       </c>
       <c r="R923" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="924">
@@ -53334,7 +53334,7 @@
         <v>2</v>
       </c>
       <c r="R944" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="945">
@@ -54790,7 +54790,7 @@
         <v>1</v>
       </c>
       <c r="R970" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="971">
@@ -56078,7 +56078,7 @@
         <v>1</v>
       </c>
       <c r="R993" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="994">
@@ -57422,7 +57422,7 @@
         <v>0</v>
       </c>
       <c r="R1017" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1018">
@@ -58206,7 +58206,7 @@
         <v>1</v>
       </c>
       <c r="R1031" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1032">
@@ -59494,7 +59494,7 @@
         <v>0</v>
       </c>
       <c r="R1054" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1055">
@@ -61566,7 +61566,7 @@
         <v>1</v>
       </c>
       <c r="R1091" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1092">
@@ -62238,7 +62238,7 @@
         <v>0</v>
       </c>
       <c r="R1103" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1104">
@@ -63638,7 +63638,7 @@
         <v>0</v>
       </c>
       <c r="R1128" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1129">
@@ -63918,7 +63918,7 @@
         <v>2</v>
       </c>
       <c r="R1133" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1134">
@@ -65374,7 +65374,7 @@
         <v>2</v>
       </c>
       <c r="R1159" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1160">
@@ -65934,7 +65934,7 @@
         <v>1</v>
       </c>
       <c r="R1169" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1170">
@@ -69406,7 +69406,7 @@
         <v>1</v>
       </c>
       <c r="R1231" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1232">
@@ -79990,7 +79990,7 @@
         <v>2</v>
       </c>
       <c r="R1420" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1421">
@@ -80774,7 +80774,7 @@
         <v>2</v>
       </c>
       <c r="R1434" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1435">
@@ -82342,7 +82342,7 @@
         <v>2</v>
       </c>
       <c r="R1462" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1463">
@@ -83294,7 +83294,7 @@
         <v>2</v>
       </c>
       <c r="R1479" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1480">
@@ -84470,7 +84470,7 @@
         <v>2</v>
       </c>
       <c r="R1500" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1501">
@@ -86374,7 +86374,7 @@
         <v>2</v>
       </c>
       <c r="R1534" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1535">
@@ -87942,7 +87942,7 @@
         <v>2</v>
       </c>
       <c r="R1562" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1563">
@@ -88782,7 +88782,7 @@
         <v>1</v>
       </c>
       <c r="R1577" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1578">
@@ -90126,7 +90126,7 @@
         <v>1</v>
       </c>
       <c r="R1601" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1602">
@@ -94774,7 +94774,7 @@
         <v>0</v>
       </c>
       <c r="R1684" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1685">
@@ -95949,7 +95949,9 @@
       <c r="Q1705" t="n">
         <v>0</v>
       </c>
-      <c r="R1705" t="inlineStr"/>
+      <c r="R1705" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1706">
       <c r="A1706" s="2" t="n">
@@ -95995,7 +95997,7 @@
         <v>24</v>
       </c>
       <c r="O1706" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="P1706" t="n">
         <v>0</v>
@@ -96003,7 +96005,9 @@
       <c r="Q1706" t="n">
         <v>0</v>
       </c>
-      <c r="R1706" t="inlineStr"/>
+      <c r="R1706" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1707">
       <c r="A1707" s="2" t="n">
@@ -96057,7 +96061,9 @@
       <c r="Q1707" t="n">
         <v>0</v>
       </c>
-      <c r="R1707" t="inlineStr"/>
+      <c r="R1707" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1708">
       <c r="A1708" s="2" t="n">
@@ -96111,7 +96117,9 @@
       <c r="Q1708" t="n">
         <v>0</v>
       </c>
-      <c r="R1708" t="inlineStr"/>
+      <c r="R1708" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1709">
       <c r="A1709" s="2" t="n">
@@ -96165,7 +96173,9 @@
       <c r="Q1709" t="n">
         <v>0</v>
       </c>
-      <c r="R1709" t="inlineStr"/>
+      <c r="R1709" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="1710">
       <c r="A1710" s="2" t="n">
@@ -96219,7 +96229,9 @@
       <c r="Q1710" t="n">
         <v>0</v>
       </c>
-      <c r="R1710" t="inlineStr"/>
+      <c r="R1710" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1711">
       <c r="A1711" s="2" t="n">
@@ -96273,7 +96285,387 @@
       <c r="Q1711" t="n">
         <v>0</v>
       </c>
-      <c r="R1711" t="inlineStr"/>
+      <c r="R1711" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1712">
+      <c r="A1712" s="2" t="n">
+        <v>45455.38541666666</v>
+      </c>
+      <c r="B1712" t="n">
+        <v>16.32999992370605</v>
+      </c>
+      <c r="C1712" t="n">
+        <v>16.70000076293945</v>
+      </c>
+      <c r="D1712" t="n">
+        <v>16.23999977111816</v>
+      </c>
+      <c r="E1712" t="n">
+        <v>16.54999923706055</v>
+      </c>
+      <c r="F1712" t="n">
+        <v>16.54999923706055</v>
+      </c>
+      <c r="G1712" t="n">
+        <v>0</v>
+      </c>
+      <c r="H1712" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1712" t="n">
+        <v>6</v>
+      </c>
+      <c r="J1712" t="n">
+        <v>12</v>
+      </c>
+      <c r="K1712" t="n">
+        <v>9</v>
+      </c>
+      <c r="L1712" t="n">
+        <v>15</v>
+      </c>
+      <c r="M1712" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1712" t="n">
+        <v>24</v>
+      </c>
+      <c r="O1712" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1712" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1712" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1712" t="inlineStr"/>
+    </row>
+    <row r="1713">
+      <c r="A1713" s="2" t="n">
+        <v>45455.42708333334</v>
+      </c>
+      <c r="B1713" t="n">
+        <v>16.54999923706055</v>
+      </c>
+      <c r="C1713" t="n">
+        <v>16.70000076293945</v>
+      </c>
+      <c r="D1713" t="n">
+        <v>16.36000061035156</v>
+      </c>
+      <c r="E1713" t="n">
+        <v>16.43000030517578</v>
+      </c>
+      <c r="F1713" t="n">
+        <v>16.43000030517578</v>
+      </c>
+      <c r="G1713" t="n">
+        <v>175669429</v>
+      </c>
+      <c r="H1713" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1713" t="n">
+        <v>6</v>
+      </c>
+      <c r="J1713" t="n">
+        <v>12</v>
+      </c>
+      <c r="K1713" t="n">
+        <v>10</v>
+      </c>
+      <c r="L1713" t="n">
+        <v>15</v>
+      </c>
+      <c r="M1713" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1713" t="n">
+        <v>24</v>
+      </c>
+      <c r="O1713" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1713" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1713" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1713" t="inlineStr"/>
+    </row>
+    <row r="1714">
+      <c r="A1714" s="2" t="n">
+        <v>45455.46875</v>
+      </c>
+      <c r="B1714" t="n">
+        <v>16.44000053405762</v>
+      </c>
+      <c r="C1714" t="n">
+        <v>16.5</v>
+      </c>
+      <c r="D1714" t="n">
+        <v>16.3700008392334</v>
+      </c>
+      <c r="E1714" t="n">
+        <v>16.3799991607666</v>
+      </c>
+      <c r="F1714" t="n">
+        <v>16.3799991607666</v>
+      </c>
+      <c r="G1714" t="n">
+        <v>83800774</v>
+      </c>
+      <c r="H1714" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1714" t="n">
+        <v>6</v>
+      </c>
+      <c r="J1714" t="n">
+        <v>12</v>
+      </c>
+      <c r="K1714" t="n">
+        <v>11</v>
+      </c>
+      <c r="L1714" t="n">
+        <v>15</v>
+      </c>
+      <c r="M1714" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1714" t="n">
+        <v>24</v>
+      </c>
+      <c r="O1714" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1714" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1714" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1714" t="inlineStr"/>
+    </row>
+    <row r="1715">
+      <c r="A1715" s="2" t="n">
+        <v>45455.51041666666</v>
+      </c>
+      <c r="B1715" t="n">
+        <v>16.3799991607666</v>
+      </c>
+      <c r="C1715" t="n">
+        <v>16.40999984741211</v>
+      </c>
+      <c r="D1715" t="n">
+        <v>16.27000045776367</v>
+      </c>
+      <c r="E1715" t="n">
+        <v>16.30999946594238</v>
+      </c>
+      <c r="F1715" t="n">
+        <v>16.30999946594238</v>
+      </c>
+      <c r="G1715" t="n">
+        <v>122092745</v>
+      </c>
+      <c r="H1715" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1715" t="n">
+        <v>6</v>
+      </c>
+      <c r="J1715" t="n">
+        <v>12</v>
+      </c>
+      <c r="K1715" t="n">
+        <v>12</v>
+      </c>
+      <c r="L1715" t="n">
+        <v>15</v>
+      </c>
+      <c r="M1715" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1715" t="n">
+        <v>24</v>
+      </c>
+      <c r="O1715" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1715" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1715" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1715" t="inlineStr"/>
+    </row>
+    <row r="1716">
+      <c r="A1716" s="2" t="n">
+        <v>45455.55208333334</v>
+      </c>
+      <c r="B1716" t="n">
+        <v>16.30999946594238</v>
+      </c>
+      <c r="C1716" t="n">
+        <v>16.3700008392334</v>
+      </c>
+      <c r="D1716" t="n">
+        <v>16.25</v>
+      </c>
+      <c r="E1716" t="n">
+        <v>16.32999992370605</v>
+      </c>
+      <c r="F1716" t="n">
+        <v>16.32999992370605</v>
+      </c>
+      <c r="G1716" t="n">
+        <v>134254032</v>
+      </c>
+      <c r="H1716" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1716" t="n">
+        <v>6</v>
+      </c>
+      <c r="J1716" t="n">
+        <v>12</v>
+      </c>
+      <c r="K1716" t="n">
+        <v>13</v>
+      </c>
+      <c r="L1716" t="n">
+        <v>15</v>
+      </c>
+      <c r="M1716" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1716" t="n">
+        <v>24</v>
+      </c>
+      <c r="O1716" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1716" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1716" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1716" t="inlineStr"/>
+    </row>
+    <row r="1717">
+      <c r="A1717" s="2" t="n">
+        <v>45455.59375</v>
+      </c>
+      <c r="B1717" t="n">
+        <v>16.32999992370605</v>
+      </c>
+      <c r="C1717" t="n">
+        <v>16.54000091552734</v>
+      </c>
+      <c r="D1717" t="n">
+        <v>16.30999946594238</v>
+      </c>
+      <c r="E1717" t="n">
+        <v>16.40999984741211</v>
+      </c>
+      <c r="F1717" t="n">
+        <v>16.40999984741211</v>
+      </c>
+      <c r="G1717" t="n">
+        <v>133541477</v>
+      </c>
+      <c r="H1717" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1717" t="n">
+        <v>6</v>
+      </c>
+      <c r="J1717" t="n">
+        <v>12</v>
+      </c>
+      <c r="K1717" t="n">
+        <v>14</v>
+      </c>
+      <c r="L1717" t="n">
+        <v>15</v>
+      </c>
+      <c r="M1717" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1717" t="n">
+        <v>24</v>
+      </c>
+      <c r="O1717" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1717" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1717" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1717" t="inlineStr"/>
+    </row>
+    <row r="1718">
+      <c r="A1718" s="2" t="n">
+        <v>45455.63541666666</v>
+      </c>
+      <c r="B1718" t="n">
+        <v>16.43000030517578</v>
+      </c>
+      <c r="C1718" t="n">
+        <v>16.47999954223633</v>
+      </c>
+      <c r="D1718" t="n">
+        <v>16.3799991607666</v>
+      </c>
+      <c r="E1718" t="n">
+        <v>16.43000030517578</v>
+      </c>
+      <c r="F1718" t="n">
+        <v>16.43000030517578</v>
+      </c>
+      <c r="G1718" t="n">
+        <v>47449701</v>
+      </c>
+      <c r="H1718" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1718" t="n">
+        <v>6</v>
+      </c>
+      <c r="J1718" t="n">
+        <v>12</v>
+      </c>
+      <c r="K1718" t="n">
+        <v>15</v>
+      </c>
+      <c r="L1718" t="n">
+        <v>15</v>
+      </c>
+      <c r="M1718" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1718" t="n">
+        <v>24</v>
+      </c>
+      <c r="O1718" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1718" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1718" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1718" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/stock_historical_data/60m/IDEA.NS.xlsx
+++ b/stock_historical_data/60m/IDEA.NS.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:R1718"/>
+  <dimension ref="A1:R1725"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -96341,7 +96341,9 @@
       <c r="Q1712" t="n">
         <v>0</v>
       </c>
-      <c r="R1712" t="inlineStr"/>
+      <c r="R1712" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1713">
       <c r="A1713" s="2" t="n">
@@ -96395,7 +96397,9 @@
       <c r="Q1713" t="n">
         <v>0</v>
       </c>
-      <c r="R1713" t="inlineStr"/>
+      <c r="R1713" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1714">
       <c r="A1714" s="2" t="n">
@@ -96449,7 +96453,9 @@
       <c r="Q1714" t="n">
         <v>0</v>
       </c>
-      <c r="R1714" t="inlineStr"/>
+      <c r="R1714" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1715">
       <c r="A1715" s="2" t="n">
@@ -96503,7 +96509,9 @@
       <c r="Q1715" t="n">
         <v>0</v>
       </c>
-      <c r="R1715" t="inlineStr"/>
+      <c r="R1715" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1716">
       <c r="A1716" s="2" t="n">
@@ -96557,7 +96565,9 @@
       <c r="Q1716" t="n">
         <v>0</v>
       </c>
-      <c r="R1716" t="inlineStr"/>
+      <c r="R1716" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1717">
       <c r="A1717" s="2" t="n">
@@ -96611,7 +96621,9 @@
       <c r="Q1717" t="n">
         <v>0</v>
       </c>
-      <c r="R1717" t="inlineStr"/>
+      <c r="R1717" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1718">
       <c r="A1718" s="2" t="n">
@@ -96665,7 +96677,387 @@
       <c r="Q1718" t="n">
         <v>0</v>
       </c>
-      <c r="R1718" t="inlineStr"/>
+      <c r="R1718" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1719">
+      <c r="A1719" s="2" t="n">
+        <v>45456.38541666666</v>
+      </c>
+      <c r="B1719" t="n">
+        <v>16.70000076293945</v>
+      </c>
+      <c r="C1719" t="n">
+        <v>16.70000076293945</v>
+      </c>
+      <c r="D1719" t="n">
+        <v>16.45999908447266</v>
+      </c>
+      <c r="E1719" t="n">
+        <v>16.53000068664551</v>
+      </c>
+      <c r="F1719" t="n">
+        <v>16.53000068664551</v>
+      </c>
+      <c r="G1719" t="n">
+        <v>184524834</v>
+      </c>
+      <c r="H1719" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1719" t="n">
+        <v>6</v>
+      </c>
+      <c r="J1719" t="n">
+        <v>13</v>
+      </c>
+      <c r="K1719" t="n">
+        <v>9</v>
+      </c>
+      <c r="L1719" t="n">
+        <v>15</v>
+      </c>
+      <c r="M1719" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1719" t="n">
+        <v>24</v>
+      </c>
+      <c r="O1719" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1719" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1719" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1719" t="inlineStr"/>
+    </row>
+    <row r="1720">
+      <c r="A1720" s="2" t="n">
+        <v>45456.42708333334</v>
+      </c>
+      <c r="B1720" t="n">
+        <v>16.48999977111816</v>
+      </c>
+      <c r="C1720" t="n">
+        <v>16.51000022888184</v>
+      </c>
+      <c r="D1720" t="n">
+        <v>16.26000022888184</v>
+      </c>
+      <c r="E1720" t="n">
+        <v>16.27000045776367</v>
+      </c>
+      <c r="F1720" t="n">
+        <v>16.27000045776367</v>
+      </c>
+      <c r="G1720" t="n">
+        <v>119149156</v>
+      </c>
+      <c r="H1720" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1720" t="n">
+        <v>6</v>
+      </c>
+      <c r="J1720" t="n">
+        <v>13</v>
+      </c>
+      <c r="K1720" t="n">
+        <v>10</v>
+      </c>
+      <c r="L1720" t="n">
+        <v>15</v>
+      </c>
+      <c r="M1720" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1720" t="n">
+        <v>24</v>
+      </c>
+      <c r="O1720" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1720" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1720" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1720" t="inlineStr"/>
+    </row>
+    <row r="1721">
+      <c r="A1721" s="2" t="n">
+        <v>45456.46875</v>
+      </c>
+      <c r="B1721" t="n">
+        <v>16.27000045776367</v>
+      </c>
+      <c r="C1721" t="n">
+        <v>16.5</v>
+      </c>
+      <c r="D1721" t="n">
+        <v>16.20999908447266</v>
+      </c>
+      <c r="E1721" t="n">
+        <v>16.40999984741211</v>
+      </c>
+      <c r="F1721" t="n">
+        <v>16.40999984741211</v>
+      </c>
+      <c r="G1721" t="n">
+        <v>105123416</v>
+      </c>
+      <c r="H1721" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1721" t="n">
+        <v>6</v>
+      </c>
+      <c r="J1721" t="n">
+        <v>13</v>
+      </c>
+      <c r="K1721" t="n">
+        <v>11</v>
+      </c>
+      <c r="L1721" t="n">
+        <v>15</v>
+      </c>
+      <c r="M1721" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1721" t="n">
+        <v>24</v>
+      </c>
+      <c r="O1721" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1721" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1721" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1721" t="inlineStr"/>
+    </row>
+    <row r="1722">
+      <c r="A1722" s="2" t="n">
+        <v>45456.51041666666</v>
+      </c>
+      <c r="B1722" t="n">
+        <v>16.40999984741211</v>
+      </c>
+      <c r="C1722" t="n">
+        <v>16.45999908447266</v>
+      </c>
+      <c r="D1722" t="n">
+        <v>16.36000061035156</v>
+      </c>
+      <c r="E1722" t="n">
+        <v>16.39999961853027</v>
+      </c>
+      <c r="F1722" t="n">
+        <v>16.39999961853027</v>
+      </c>
+      <c r="G1722" t="n">
+        <v>54671534</v>
+      </c>
+      <c r="H1722" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1722" t="n">
+        <v>6</v>
+      </c>
+      <c r="J1722" t="n">
+        <v>13</v>
+      </c>
+      <c r="K1722" t="n">
+        <v>12</v>
+      </c>
+      <c r="L1722" t="n">
+        <v>15</v>
+      </c>
+      <c r="M1722" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1722" t="n">
+        <v>24</v>
+      </c>
+      <c r="O1722" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1722" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1722" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1722" t="inlineStr"/>
+    </row>
+    <row r="1723">
+      <c r="A1723" s="2" t="n">
+        <v>45456.55208333334</v>
+      </c>
+      <c r="B1723" t="n">
+        <v>16.39999961853027</v>
+      </c>
+      <c r="C1723" t="n">
+        <v>16.42000007629395</v>
+      </c>
+      <c r="D1723" t="n">
+        <v>16.28000068664551</v>
+      </c>
+      <c r="E1723" t="n">
+        <v>16.32999992370605</v>
+      </c>
+      <c r="F1723" t="n">
+        <v>16.32999992370605</v>
+      </c>
+      <c r="G1723" t="n">
+        <v>79240509</v>
+      </c>
+      <c r="H1723" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1723" t="n">
+        <v>6</v>
+      </c>
+      <c r="J1723" t="n">
+        <v>13</v>
+      </c>
+      <c r="K1723" t="n">
+        <v>13</v>
+      </c>
+      <c r="L1723" t="n">
+        <v>15</v>
+      </c>
+      <c r="M1723" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1723" t="n">
+        <v>24</v>
+      </c>
+      <c r="O1723" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1723" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1723" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1723" t="inlineStr"/>
+    </row>
+    <row r="1724">
+      <c r="A1724" s="2" t="n">
+        <v>45456.59375</v>
+      </c>
+      <c r="B1724" t="n">
+        <v>16.32999992370605</v>
+      </c>
+      <c r="C1724" t="n">
+        <v>16.34000015258789</v>
+      </c>
+      <c r="D1724" t="n">
+        <v>16</v>
+      </c>
+      <c r="E1724" t="n">
+        <v>16.07999992370605</v>
+      </c>
+      <c r="F1724" t="n">
+        <v>16.07999992370605</v>
+      </c>
+      <c r="G1724" t="n">
+        <v>136196459</v>
+      </c>
+      <c r="H1724" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1724" t="n">
+        <v>6</v>
+      </c>
+      <c r="J1724" t="n">
+        <v>13</v>
+      </c>
+      <c r="K1724" t="n">
+        <v>14</v>
+      </c>
+      <c r="L1724" t="n">
+        <v>15</v>
+      </c>
+      <c r="M1724" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1724" t="n">
+        <v>24</v>
+      </c>
+      <c r="O1724" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1724" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1724" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1724" t="inlineStr"/>
+    </row>
+    <row r="1725">
+      <c r="A1725" s="2" t="n">
+        <v>45456.63541666666</v>
+      </c>
+      <c r="B1725" t="n">
+        <v>16.06999969482422</v>
+      </c>
+      <c r="C1725" t="n">
+        <v>16.10000038146973</v>
+      </c>
+      <c r="D1725" t="n">
+        <v>16.03000068664551</v>
+      </c>
+      <c r="E1725" t="n">
+        <v>16.06999969482422</v>
+      </c>
+      <c r="F1725" t="n">
+        <v>16.06999969482422</v>
+      </c>
+      <c r="G1725" t="n">
+        <v>52525388</v>
+      </c>
+      <c r="H1725" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1725" t="n">
+        <v>6</v>
+      </c>
+      <c r="J1725" t="n">
+        <v>13</v>
+      </c>
+      <c r="K1725" t="n">
+        <v>15</v>
+      </c>
+      <c r="L1725" t="n">
+        <v>15</v>
+      </c>
+      <c r="M1725" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1725" t="n">
+        <v>24</v>
+      </c>
+      <c r="O1725" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1725" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1725" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1725" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/stock_historical_data/60m/IDEA.NS.xlsx
+++ b/stock_historical_data/60m/IDEA.NS.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:R1725"/>
+  <dimension ref="A1:R1732"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -96333,7 +96333,7 @@
         <v>24</v>
       </c>
       <c r="O1712" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P1712" t="n">
         <v>0</v>
@@ -96389,7 +96389,7 @@
         <v>24</v>
       </c>
       <c r="O1713" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P1713" t="n">
         <v>0</v>
@@ -96725,7 +96725,7 @@
         <v>24</v>
       </c>
       <c r="O1719" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P1719" t="n">
         <v>0</v>
@@ -96733,7 +96733,9 @@
       <c r="Q1719" t="n">
         <v>0</v>
       </c>
-      <c r="R1719" t="inlineStr"/>
+      <c r="R1719" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1720">
       <c r="A1720" s="2" t="n">
@@ -96787,7 +96789,9 @@
       <c r="Q1720" t="n">
         <v>0</v>
       </c>
-      <c r="R1720" t="inlineStr"/>
+      <c r="R1720" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1721">
       <c r="A1721" s="2" t="n">
@@ -96841,7 +96845,9 @@
       <c r="Q1721" t="n">
         <v>0</v>
       </c>
-      <c r="R1721" t="inlineStr"/>
+      <c r="R1721" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1722">
       <c r="A1722" s="2" t="n">
@@ -96895,7 +96901,9 @@
       <c r="Q1722" t="n">
         <v>0</v>
       </c>
-      <c r="R1722" t="inlineStr"/>
+      <c r="R1722" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1723">
       <c r="A1723" s="2" t="n">
@@ -96944,12 +96952,14 @@
         <v>0</v>
       </c>
       <c r="P1723" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="Q1723" t="n">
         <v>0</v>
       </c>
-      <c r="R1723" t="inlineStr"/>
+      <c r="R1723" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1724">
       <c r="A1724" s="2" t="n">
@@ -96998,12 +97008,14 @@
         <v>0</v>
       </c>
       <c r="P1724" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="Q1724" t="n">
-        <v>0</v>
-      </c>
-      <c r="R1724" t="inlineStr"/>
+        <v>2</v>
+      </c>
+      <c r="R1724" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1725">
       <c r="A1725" s="2" t="n">
@@ -97057,7 +97069,387 @@
       <c r="Q1725" t="n">
         <v>0</v>
       </c>
-      <c r="R1725" t="inlineStr"/>
+      <c r="R1725" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1726">
+      <c r="A1726" s="2" t="n">
+        <v>45457.38541666666</v>
+      </c>
+      <c r="B1726" t="n">
+        <v>16.25</v>
+      </c>
+      <c r="C1726" t="n">
+        <v>16.3700008392334</v>
+      </c>
+      <c r="D1726" t="n">
+        <v>16.07999992370605</v>
+      </c>
+      <c r="E1726" t="n">
+        <v>16.1200008392334</v>
+      </c>
+      <c r="F1726" t="n">
+        <v>16.1200008392334</v>
+      </c>
+      <c r="G1726" t="n">
+        <v>0</v>
+      </c>
+      <c r="H1726" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1726" t="n">
+        <v>6</v>
+      </c>
+      <c r="J1726" t="n">
+        <v>14</v>
+      </c>
+      <c r="K1726" t="n">
+        <v>9</v>
+      </c>
+      <c r="L1726" t="n">
+        <v>15</v>
+      </c>
+      <c r="M1726" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1726" t="n">
+        <v>24</v>
+      </c>
+      <c r="O1726" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1726" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1726" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1726" t="inlineStr"/>
+    </row>
+    <row r="1727">
+      <c r="A1727" s="2" t="n">
+        <v>45457.42708333334</v>
+      </c>
+      <c r="B1727" t="n">
+        <v>16.1299991607666</v>
+      </c>
+      <c r="C1727" t="n">
+        <v>16.21999931335449</v>
+      </c>
+      <c r="D1727" t="n">
+        <v>16.05999946594238</v>
+      </c>
+      <c r="E1727" t="n">
+        <v>16.21999931335449</v>
+      </c>
+      <c r="F1727" t="n">
+        <v>16.21999931335449</v>
+      </c>
+      <c r="G1727" t="n">
+        <v>110019787</v>
+      </c>
+      <c r="H1727" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1727" t="n">
+        <v>6</v>
+      </c>
+      <c r="J1727" t="n">
+        <v>14</v>
+      </c>
+      <c r="K1727" t="n">
+        <v>10</v>
+      </c>
+      <c r="L1727" t="n">
+        <v>15</v>
+      </c>
+      <c r="M1727" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1727" t="n">
+        <v>24</v>
+      </c>
+      <c r="O1727" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1727" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1727" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1727" t="inlineStr"/>
+    </row>
+    <row r="1728">
+      <c r="A1728" s="2" t="n">
+        <v>45457.46875</v>
+      </c>
+      <c r="B1728" t="n">
+        <v>16.20999908447266</v>
+      </c>
+      <c r="C1728" t="n">
+        <v>16.29999923706055</v>
+      </c>
+      <c r="D1728" t="n">
+        <v>16.13999938964844</v>
+      </c>
+      <c r="E1728" t="n">
+        <v>16.22999954223633</v>
+      </c>
+      <c r="F1728" t="n">
+        <v>16.22999954223633</v>
+      </c>
+      <c r="G1728" t="n">
+        <v>87992798</v>
+      </c>
+      <c r="H1728" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1728" t="n">
+        <v>6</v>
+      </c>
+      <c r="J1728" t="n">
+        <v>14</v>
+      </c>
+      <c r="K1728" t="n">
+        <v>11</v>
+      </c>
+      <c r="L1728" t="n">
+        <v>15</v>
+      </c>
+      <c r="M1728" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1728" t="n">
+        <v>24</v>
+      </c>
+      <c r="O1728" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1728" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1728" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1728" t="inlineStr"/>
+    </row>
+    <row r="1729">
+      <c r="A1729" s="2" t="n">
+        <v>45457.51041666666</v>
+      </c>
+      <c r="B1729" t="n">
+        <v>16.22999954223633</v>
+      </c>
+      <c r="C1729" t="n">
+        <v>16.5</v>
+      </c>
+      <c r="D1729" t="n">
+        <v>16.20000076293945</v>
+      </c>
+      <c r="E1729" t="n">
+        <v>16.42000007629395</v>
+      </c>
+      <c r="F1729" t="n">
+        <v>16.42000007629395</v>
+      </c>
+      <c r="G1729" t="n">
+        <v>159713836</v>
+      </c>
+      <c r="H1729" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1729" t="n">
+        <v>6</v>
+      </c>
+      <c r="J1729" t="n">
+        <v>14</v>
+      </c>
+      <c r="K1729" t="n">
+        <v>12</v>
+      </c>
+      <c r="L1729" t="n">
+        <v>15</v>
+      </c>
+      <c r="M1729" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1729" t="n">
+        <v>24</v>
+      </c>
+      <c r="O1729" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1729" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1729" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1729" t="inlineStr"/>
+    </row>
+    <row r="1730">
+      <c r="A1730" s="2" t="n">
+        <v>45457.55208333334</v>
+      </c>
+      <c r="B1730" t="n">
+        <v>16.42000007629395</v>
+      </c>
+      <c r="C1730" t="n">
+        <v>16.54000091552734</v>
+      </c>
+      <c r="D1730" t="n">
+        <v>16.35000038146973</v>
+      </c>
+      <c r="E1730" t="n">
+        <v>16.47999954223633</v>
+      </c>
+      <c r="F1730" t="n">
+        <v>16.47999954223633</v>
+      </c>
+      <c r="G1730" t="n">
+        <v>145565042</v>
+      </c>
+      <c r="H1730" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1730" t="n">
+        <v>6</v>
+      </c>
+      <c r="J1730" t="n">
+        <v>14</v>
+      </c>
+      <c r="K1730" t="n">
+        <v>13</v>
+      </c>
+      <c r="L1730" t="n">
+        <v>15</v>
+      </c>
+      <c r="M1730" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1730" t="n">
+        <v>24</v>
+      </c>
+      <c r="O1730" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1730" t="n">
+        <v>2</v>
+      </c>
+      <c r="Q1730" t="n">
+        <v>2</v>
+      </c>
+      <c r="R1730" t="inlineStr"/>
+    </row>
+    <row r="1731">
+      <c r="A1731" s="2" t="n">
+        <v>45457.59375</v>
+      </c>
+      <c r="B1731" t="n">
+        <v>16.47999954223633</v>
+      </c>
+      <c r="C1731" t="n">
+        <v>16.85000038146973</v>
+      </c>
+      <c r="D1731" t="n">
+        <v>16.39999961853027</v>
+      </c>
+      <c r="E1731" t="n">
+        <v>16.77000045776367</v>
+      </c>
+      <c r="F1731" t="n">
+        <v>16.77000045776367</v>
+      </c>
+      <c r="G1731" t="n">
+        <v>238387497</v>
+      </c>
+      <c r="H1731" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1731" t="n">
+        <v>6</v>
+      </c>
+      <c r="J1731" t="n">
+        <v>14</v>
+      </c>
+      <c r="K1731" t="n">
+        <v>14</v>
+      </c>
+      <c r="L1731" t="n">
+        <v>15</v>
+      </c>
+      <c r="M1731" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1731" t="n">
+        <v>24</v>
+      </c>
+      <c r="O1731" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1731" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1731" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1731" t="inlineStr"/>
+    </row>
+    <row r="1732">
+      <c r="A1732" s="2" t="n">
+        <v>45457.63541666666</v>
+      </c>
+      <c r="B1732" t="n">
+        <v>16.78000068664551</v>
+      </c>
+      <c r="C1732" t="n">
+        <v>16.79999923706055</v>
+      </c>
+      <c r="D1732" t="n">
+        <v>16.70999908447266</v>
+      </c>
+      <c r="E1732" t="n">
+        <v>16.72999954223633</v>
+      </c>
+      <c r="F1732" t="n">
+        <v>16.72999954223633</v>
+      </c>
+      <c r="G1732" t="n">
+        <v>121081683</v>
+      </c>
+      <c r="H1732" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1732" t="n">
+        <v>6</v>
+      </c>
+      <c r="J1732" t="n">
+        <v>14</v>
+      </c>
+      <c r="K1732" t="n">
+        <v>15</v>
+      </c>
+      <c r="L1732" t="n">
+        <v>15</v>
+      </c>
+      <c r="M1732" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1732" t="n">
+        <v>24</v>
+      </c>
+      <c r="O1732" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1732" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1732" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1732" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/stock_historical_data/60m/IDEA.NS.xlsx
+++ b/stock_historical_data/60m/IDEA.NS.xlsx
@@ -96958,7 +96958,7 @@
         <v>0</v>
       </c>
       <c r="R1723" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1724">
@@ -97014,7 +97014,7 @@
         <v>2</v>
       </c>
       <c r="R1724" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1725">
@@ -97125,7 +97125,9 @@
       <c r="Q1726" t="n">
         <v>0</v>
       </c>
-      <c r="R1726" t="inlineStr"/>
+      <c r="R1726" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1727">
       <c r="A1727" s="2" t="n">
@@ -97179,7 +97181,9 @@
       <c r="Q1727" t="n">
         <v>0</v>
       </c>
-      <c r="R1727" t="inlineStr"/>
+      <c r="R1727" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1728">
       <c r="A1728" s="2" t="n">
@@ -97233,7 +97237,9 @@
       <c r="Q1728" t="n">
         <v>0</v>
       </c>
-      <c r="R1728" t="inlineStr"/>
+      <c r="R1728" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1729">
       <c r="A1729" s="2" t="n">
@@ -97287,7 +97293,9 @@
       <c r="Q1729" t="n">
         <v>0</v>
       </c>
-      <c r="R1729" t="inlineStr"/>
+      <c r="R1729" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1730">
       <c r="A1730" s="2" t="n">
@@ -97341,7 +97349,9 @@
       <c r="Q1730" t="n">
         <v>2</v>
       </c>
-      <c r="R1730" t="inlineStr"/>
+      <c r="R1730" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="1731">
       <c r="A1731" s="2" t="n">
@@ -97395,7 +97405,9 @@
       <c r="Q1731" t="n">
         <v>0</v>
       </c>
-      <c r="R1731" t="inlineStr"/>
+      <c r="R1731" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1732">
       <c r="A1732" s="2" t="n">
@@ -97449,7 +97461,9 @@
       <c r="Q1732" t="n">
         <v>0</v>
       </c>
-      <c r="R1732" t="inlineStr"/>
+      <c r="R1732" t="n">
+        <v>0</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/stock_historical_data/60m/IDEA.NS.xlsx
+++ b/stock_historical_data/60m/IDEA.NS.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:R1732"/>
+  <dimension ref="A1:R1739"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -97005,7 +97005,7 @@
         <v>24</v>
       </c>
       <c r="O1724" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="P1724" t="n">
         <v>2</v>
@@ -97464,6 +97464,384 @@
       <c r="R1732" t="n">
         <v>0</v>
       </c>
+    </row>
+    <row r="1733">
+      <c r="A1733" s="2" t="n">
+        <v>45461.38541666666</v>
+      </c>
+      <c r="B1733" t="n">
+        <v>16.95000076293945</v>
+      </c>
+      <c r="C1733" t="n">
+        <v>17.02000045776367</v>
+      </c>
+      <c r="D1733" t="n">
+        <v>16.72999954223633</v>
+      </c>
+      <c r="E1733" t="n">
+        <v>16.73999977111816</v>
+      </c>
+      <c r="F1733" t="n">
+        <v>16.73999977111816</v>
+      </c>
+      <c r="G1733" t="n">
+        <v>0</v>
+      </c>
+      <c r="H1733" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1733" t="n">
+        <v>6</v>
+      </c>
+      <c r="J1733" t="n">
+        <v>18</v>
+      </c>
+      <c r="K1733" t="n">
+        <v>9</v>
+      </c>
+      <c r="L1733" t="n">
+        <v>15</v>
+      </c>
+      <c r="M1733" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1733" t="n">
+        <v>25</v>
+      </c>
+      <c r="O1733" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1733" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1733" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1733" t="inlineStr"/>
+    </row>
+    <row r="1734">
+      <c r="A1734" s="2" t="n">
+        <v>45461.42708333334</v>
+      </c>
+      <c r="B1734" t="n">
+        <v>16.72999954223633</v>
+      </c>
+      <c r="C1734" t="n">
+        <v>16.73999977111816</v>
+      </c>
+      <c r="D1734" t="n">
+        <v>16.47999954223633</v>
+      </c>
+      <c r="E1734" t="n">
+        <v>16.67000007629395</v>
+      </c>
+      <c r="F1734" t="n">
+        <v>16.67000007629395</v>
+      </c>
+      <c r="G1734" t="n">
+        <v>165433865</v>
+      </c>
+      <c r="H1734" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1734" t="n">
+        <v>6</v>
+      </c>
+      <c r="J1734" t="n">
+        <v>18</v>
+      </c>
+      <c r="K1734" t="n">
+        <v>10</v>
+      </c>
+      <c r="L1734" t="n">
+        <v>15</v>
+      </c>
+      <c r="M1734" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1734" t="n">
+        <v>25</v>
+      </c>
+      <c r="O1734" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1734" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1734" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1734" t="inlineStr"/>
+    </row>
+    <row r="1735">
+      <c r="A1735" s="2" t="n">
+        <v>45461.46875</v>
+      </c>
+      <c r="B1735" t="n">
+        <v>16.65999984741211</v>
+      </c>
+      <c r="C1735" t="n">
+        <v>16.68000030517578</v>
+      </c>
+      <c r="D1735" t="n">
+        <v>16.55999946594238</v>
+      </c>
+      <c r="E1735" t="n">
+        <v>16.61000061035156</v>
+      </c>
+      <c r="F1735" t="n">
+        <v>16.61000061035156</v>
+      </c>
+      <c r="G1735" t="n">
+        <v>46714316</v>
+      </c>
+      <c r="H1735" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1735" t="n">
+        <v>6</v>
+      </c>
+      <c r="J1735" t="n">
+        <v>18</v>
+      </c>
+      <c r="K1735" t="n">
+        <v>11</v>
+      </c>
+      <c r="L1735" t="n">
+        <v>15</v>
+      </c>
+      <c r="M1735" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1735" t="n">
+        <v>25</v>
+      </c>
+      <c r="O1735" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1735" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1735" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1735" t="inlineStr"/>
+    </row>
+    <row r="1736">
+      <c r="A1736" s="2" t="n">
+        <v>45461.51041666666</v>
+      </c>
+      <c r="B1736" t="n">
+        <v>16.61000061035156</v>
+      </c>
+      <c r="C1736" t="n">
+        <v>16.84000015258789</v>
+      </c>
+      <c r="D1736" t="n">
+        <v>16.60000038146973</v>
+      </c>
+      <c r="E1736" t="n">
+        <v>16.82999992370605</v>
+      </c>
+      <c r="F1736" t="n">
+        <v>16.82999992370605</v>
+      </c>
+      <c r="G1736" t="n">
+        <v>71760042</v>
+      </c>
+      <c r="H1736" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1736" t="n">
+        <v>6</v>
+      </c>
+      <c r="J1736" t="n">
+        <v>18</v>
+      </c>
+      <c r="K1736" t="n">
+        <v>12</v>
+      </c>
+      <c r="L1736" t="n">
+        <v>15</v>
+      </c>
+      <c r="M1736" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1736" t="n">
+        <v>25</v>
+      </c>
+      <c r="O1736" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1736" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1736" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1736" t="inlineStr"/>
+    </row>
+    <row r="1737">
+      <c r="A1737" s="2" t="n">
+        <v>45461.55208333334</v>
+      </c>
+      <c r="B1737" t="n">
+        <v>16.84000015258789</v>
+      </c>
+      <c r="C1737" t="n">
+        <v>16.90999984741211</v>
+      </c>
+      <c r="D1737" t="n">
+        <v>16.72999954223633</v>
+      </c>
+      <c r="E1737" t="n">
+        <v>16.79999923706055</v>
+      </c>
+      <c r="F1737" t="n">
+        <v>16.79999923706055</v>
+      </c>
+      <c r="G1737" t="n">
+        <v>109168790</v>
+      </c>
+      <c r="H1737" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1737" t="n">
+        <v>6</v>
+      </c>
+      <c r="J1737" t="n">
+        <v>18</v>
+      </c>
+      <c r="K1737" t="n">
+        <v>13</v>
+      </c>
+      <c r="L1737" t="n">
+        <v>15</v>
+      </c>
+      <c r="M1737" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1737" t="n">
+        <v>25</v>
+      </c>
+      <c r="O1737" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1737" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1737" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1737" t="inlineStr"/>
+    </row>
+    <row r="1738">
+      <c r="A1738" s="2" t="n">
+        <v>45461.59375</v>
+      </c>
+      <c r="B1738" t="n">
+        <v>16.79999923706055</v>
+      </c>
+      <c r="C1738" t="n">
+        <v>16.88999938964844</v>
+      </c>
+      <c r="D1738" t="n">
+        <v>16.76000022888184</v>
+      </c>
+      <c r="E1738" t="n">
+        <v>16.84000015258789</v>
+      </c>
+      <c r="F1738" t="n">
+        <v>16.84000015258789</v>
+      </c>
+      <c r="G1738" t="n">
+        <v>88551566</v>
+      </c>
+      <c r="H1738" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1738" t="n">
+        <v>6</v>
+      </c>
+      <c r="J1738" t="n">
+        <v>18</v>
+      </c>
+      <c r="K1738" t="n">
+        <v>14</v>
+      </c>
+      <c r="L1738" t="n">
+        <v>15</v>
+      </c>
+      <c r="M1738" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1738" t="n">
+        <v>25</v>
+      </c>
+      <c r="O1738" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1738" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1738" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1738" t="inlineStr"/>
+    </row>
+    <row r="1739">
+      <c r="A1739" s="2" t="n">
+        <v>45461.63541666666</v>
+      </c>
+      <c r="B1739" t="n">
+        <v>16.84000015258789</v>
+      </c>
+      <c r="C1739" t="n">
+        <v>16.88999938964844</v>
+      </c>
+      <c r="D1739" t="n">
+        <v>16.84000015258789</v>
+      </c>
+      <c r="E1739" t="n">
+        <v>16.85000038146973</v>
+      </c>
+      <c r="F1739" t="n">
+        <v>16.85000038146973</v>
+      </c>
+      <c r="G1739" t="n">
+        <v>64576389</v>
+      </c>
+      <c r="H1739" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1739" t="n">
+        <v>6</v>
+      </c>
+      <c r="J1739" t="n">
+        <v>18</v>
+      </c>
+      <c r="K1739" t="n">
+        <v>15</v>
+      </c>
+      <c r="L1739" t="n">
+        <v>15</v>
+      </c>
+      <c r="M1739" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1739" t="n">
+        <v>25</v>
+      </c>
+      <c r="O1739" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1739" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1739" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1739" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/stock_historical_data/60m/IDEA.NS.xlsx
+++ b/stock_historical_data/60m/IDEA.NS.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:R1739"/>
+  <dimension ref="A1:R1746"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -97517,7 +97517,9 @@
       <c r="Q1733" t="n">
         <v>0</v>
       </c>
-      <c r="R1733" t="inlineStr"/>
+      <c r="R1733" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1734">
       <c r="A1734" s="2" t="n">
@@ -97571,7 +97573,9 @@
       <c r="Q1734" t="n">
         <v>0</v>
       </c>
-      <c r="R1734" t="inlineStr"/>
+      <c r="R1734" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1735">
       <c r="A1735" s="2" t="n">
@@ -97625,7 +97629,9 @@
       <c r="Q1735" t="n">
         <v>0</v>
       </c>
-      <c r="R1735" t="inlineStr"/>
+      <c r="R1735" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1736">
       <c r="A1736" s="2" t="n">
@@ -97679,7 +97685,9 @@
       <c r="Q1736" t="n">
         <v>0</v>
       </c>
-      <c r="R1736" t="inlineStr"/>
+      <c r="R1736" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1737">
       <c r="A1737" s="2" t="n">
@@ -97733,7 +97741,9 @@
       <c r="Q1737" t="n">
         <v>0</v>
       </c>
-      <c r="R1737" t="inlineStr"/>
+      <c r="R1737" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1738">
       <c r="A1738" s="2" t="n">
@@ -97787,7 +97797,9 @@
       <c r="Q1738" t="n">
         <v>0</v>
       </c>
-      <c r="R1738" t="inlineStr"/>
+      <c r="R1738" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1739">
       <c r="A1739" s="2" t="n">
@@ -97841,7 +97853,387 @@
       <c r="Q1739" t="n">
         <v>0</v>
       </c>
-      <c r="R1739" t="inlineStr"/>
+      <c r="R1739" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1740">
+      <c r="A1740" s="2" t="n">
+        <v>45462.38541666666</v>
+      </c>
+      <c r="B1740" t="n">
+        <v>16.97999954223633</v>
+      </c>
+      <c r="C1740" t="n">
+        <v>17.04999923706055</v>
+      </c>
+      <c r="D1740" t="n">
+        <v>16.40999984741211</v>
+      </c>
+      <c r="E1740" t="n">
+        <v>16.53000068664551</v>
+      </c>
+      <c r="F1740" t="n">
+        <v>16.53000068664551</v>
+      </c>
+      <c r="G1740" t="n">
+        <v>351323562</v>
+      </c>
+      <c r="H1740" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1740" t="n">
+        <v>6</v>
+      </c>
+      <c r="J1740" t="n">
+        <v>19</v>
+      </c>
+      <c r="K1740" t="n">
+        <v>9</v>
+      </c>
+      <c r="L1740" t="n">
+        <v>15</v>
+      </c>
+      <c r="M1740" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1740" t="n">
+        <v>25</v>
+      </c>
+      <c r="O1740" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1740" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1740" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1740" t="inlineStr"/>
+    </row>
+    <row r="1741">
+      <c r="A1741" s="2" t="n">
+        <v>45462.42708333334</v>
+      </c>
+      <c r="B1741" t="n">
+        <v>16.53000068664551</v>
+      </c>
+      <c r="C1741" t="n">
+        <v>16.56999969482422</v>
+      </c>
+      <c r="D1741" t="n">
+        <v>16.36000061035156</v>
+      </c>
+      <c r="E1741" t="n">
+        <v>16.45999908447266</v>
+      </c>
+      <c r="F1741" t="n">
+        <v>16.45999908447266</v>
+      </c>
+      <c r="G1741" t="n">
+        <v>193433231</v>
+      </c>
+      <c r="H1741" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1741" t="n">
+        <v>6</v>
+      </c>
+      <c r="J1741" t="n">
+        <v>19</v>
+      </c>
+      <c r="K1741" t="n">
+        <v>10</v>
+      </c>
+      <c r="L1741" t="n">
+        <v>15</v>
+      </c>
+      <c r="M1741" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1741" t="n">
+        <v>25</v>
+      </c>
+      <c r="O1741" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1741" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1741" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1741" t="inlineStr"/>
+    </row>
+    <row r="1742">
+      <c r="A1742" s="2" t="n">
+        <v>45462.46875</v>
+      </c>
+      <c r="B1742" t="n">
+        <v>16.46999931335449</v>
+      </c>
+      <c r="C1742" t="n">
+        <v>17.20000076293945</v>
+      </c>
+      <c r="D1742" t="n">
+        <v>16.45999908447266</v>
+      </c>
+      <c r="E1742" t="n">
+        <v>17.18000030517578</v>
+      </c>
+      <c r="F1742" t="n">
+        <v>17.18000030517578</v>
+      </c>
+      <c r="G1742" t="n">
+        <v>250716271</v>
+      </c>
+      <c r="H1742" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1742" t="n">
+        <v>6</v>
+      </c>
+      <c r="J1742" t="n">
+        <v>19</v>
+      </c>
+      <c r="K1742" t="n">
+        <v>11</v>
+      </c>
+      <c r="L1742" t="n">
+        <v>15</v>
+      </c>
+      <c r="M1742" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1742" t="n">
+        <v>25</v>
+      </c>
+      <c r="O1742" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1742" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1742" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1742" t="inlineStr"/>
+    </row>
+    <row r="1743">
+      <c r="A1743" s="2" t="n">
+        <v>45462.51041666666</v>
+      </c>
+      <c r="B1743" t="n">
+        <v>17.20000076293945</v>
+      </c>
+      <c r="C1743" t="n">
+        <v>17.35000038146973</v>
+      </c>
+      <c r="D1743" t="n">
+        <v>17.07999992370605</v>
+      </c>
+      <c r="E1743" t="n">
+        <v>17.27000045776367</v>
+      </c>
+      <c r="F1743" t="n">
+        <v>17.27000045776367</v>
+      </c>
+      <c r="G1743" t="n">
+        <v>319969705</v>
+      </c>
+      <c r="H1743" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1743" t="n">
+        <v>6</v>
+      </c>
+      <c r="J1743" t="n">
+        <v>19</v>
+      </c>
+      <c r="K1743" t="n">
+        <v>12</v>
+      </c>
+      <c r="L1743" t="n">
+        <v>15</v>
+      </c>
+      <c r="M1743" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1743" t="n">
+        <v>25</v>
+      </c>
+      <c r="O1743" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1743" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1743" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1743" t="inlineStr"/>
+    </row>
+    <row r="1744">
+      <c r="A1744" s="2" t="n">
+        <v>45462.55208333334</v>
+      </c>
+      <c r="B1744" t="n">
+        <v>17.26000022888184</v>
+      </c>
+      <c r="C1744" t="n">
+        <v>17.32999992370605</v>
+      </c>
+      <c r="D1744" t="n">
+        <v>17.20999908447266</v>
+      </c>
+      <c r="E1744" t="n">
+        <v>17.26000022888184</v>
+      </c>
+      <c r="F1744" t="n">
+        <v>17.26000022888184</v>
+      </c>
+      <c r="G1744" t="n">
+        <v>135668776</v>
+      </c>
+      <c r="H1744" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1744" t="n">
+        <v>6</v>
+      </c>
+      <c r="J1744" t="n">
+        <v>19</v>
+      </c>
+      <c r="K1744" t="n">
+        <v>13</v>
+      </c>
+      <c r="L1744" t="n">
+        <v>15</v>
+      </c>
+      <c r="M1744" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1744" t="n">
+        <v>25</v>
+      </c>
+      <c r="O1744" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1744" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1744" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1744" t="inlineStr"/>
+    </row>
+    <row r="1745">
+      <c r="A1745" s="2" t="n">
+        <v>45462.59375</v>
+      </c>
+      <c r="B1745" t="n">
+        <v>17.25</v>
+      </c>
+      <c r="C1745" t="n">
+        <v>17.38999938964844</v>
+      </c>
+      <c r="D1745" t="n">
+        <v>16.8700008392334</v>
+      </c>
+      <c r="E1745" t="n">
+        <v>16.88999938964844</v>
+      </c>
+      <c r="F1745" t="n">
+        <v>16.88999938964844</v>
+      </c>
+      <c r="G1745" t="n">
+        <v>257414633</v>
+      </c>
+      <c r="H1745" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1745" t="n">
+        <v>6</v>
+      </c>
+      <c r="J1745" t="n">
+        <v>19</v>
+      </c>
+      <c r="K1745" t="n">
+        <v>14</v>
+      </c>
+      <c r="L1745" t="n">
+        <v>15</v>
+      </c>
+      <c r="M1745" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1745" t="n">
+        <v>25</v>
+      </c>
+      <c r="O1745" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1745" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1745" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1745" t="inlineStr"/>
+    </row>
+    <row r="1746">
+      <c r="A1746" s="2" t="n">
+        <v>45462.63541666666</v>
+      </c>
+      <c r="B1746" t="n">
+        <v>16.89999961853027</v>
+      </c>
+      <c r="C1746" t="n">
+        <v>16.94000053405762</v>
+      </c>
+      <c r="D1746" t="n">
+        <v>16.8700008392334</v>
+      </c>
+      <c r="E1746" t="n">
+        <v>16.92000007629395</v>
+      </c>
+      <c r="F1746" t="n">
+        <v>16.92000007629395</v>
+      </c>
+      <c r="G1746" t="n">
+        <v>54738541</v>
+      </c>
+      <c r="H1746" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1746" t="n">
+        <v>6</v>
+      </c>
+      <c r="J1746" t="n">
+        <v>19</v>
+      </c>
+      <c r="K1746" t="n">
+        <v>15</v>
+      </c>
+      <c r="L1746" t="n">
+        <v>15</v>
+      </c>
+      <c r="M1746" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1746" t="n">
+        <v>25</v>
+      </c>
+      <c r="O1746" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1746" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1746" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1746" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/stock_historical_data/60m/IDEA.NS.xlsx
+++ b/stock_historical_data/60m/IDEA.NS.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:R1746"/>
+  <dimension ref="A1:R1767"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -97909,7 +97909,9 @@
       <c r="Q1740" t="n">
         <v>0</v>
       </c>
-      <c r="R1740" t="inlineStr"/>
+      <c r="R1740" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1741">
       <c r="A1741" s="2" t="n">
@@ -97955,7 +97957,7 @@
         <v>25</v>
       </c>
       <c r="O1741" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="P1741" t="n">
         <v>0</v>
@@ -97963,7 +97965,9 @@
       <c r="Q1741" t="n">
         <v>0</v>
       </c>
-      <c r="R1741" t="inlineStr"/>
+      <c r="R1741" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1742">
       <c r="A1742" s="2" t="n">
@@ -98017,7 +98021,9 @@
       <c r="Q1742" t="n">
         <v>0</v>
       </c>
-      <c r="R1742" t="inlineStr"/>
+      <c r="R1742" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1743">
       <c r="A1743" s="2" t="n">
@@ -98071,7 +98077,9 @@
       <c r="Q1743" t="n">
         <v>0</v>
       </c>
-      <c r="R1743" t="inlineStr"/>
+      <c r="R1743" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1744">
       <c r="A1744" s="2" t="n">
@@ -98125,7 +98133,9 @@
       <c r="Q1744" t="n">
         <v>0</v>
       </c>
-      <c r="R1744" t="inlineStr"/>
+      <c r="R1744" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1745">
       <c r="A1745" s="2" t="n">
@@ -98171,7 +98181,7 @@
         <v>25</v>
       </c>
       <c r="O1745" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P1745" t="n">
         <v>0</v>
@@ -98179,7 +98189,9 @@
       <c r="Q1745" t="n">
         <v>0</v>
       </c>
-      <c r="R1745" t="inlineStr"/>
+      <c r="R1745" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1746">
       <c r="A1746" s="2" t="n">
@@ -98233,7 +98245,1143 @@
       <c r="Q1746" t="n">
         <v>0</v>
       </c>
-      <c r="R1746" t="inlineStr"/>
+      <c r="R1746" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1747">
+      <c r="A1747" s="2" t="n">
+        <v>45463.38541666666</v>
+      </c>
+      <c r="B1747" t="n">
+        <v>16.95000076293945</v>
+      </c>
+      <c r="C1747" t="n">
+        <v>16.95999908447266</v>
+      </c>
+      <c r="D1747" t="n">
+        <v>16.51000022888184</v>
+      </c>
+      <c r="E1747" t="n">
+        <v>16.6200008392334</v>
+      </c>
+      <c r="F1747" t="n">
+        <v>16.6200008392334</v>
+      </c>
+      <c r="G1747" t="n">
+        <v>0</v>
+      </c>
+      <c r="H1747" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1747" t="n">
+        <v>6</v>
+      </c>
+      <c r="J1747" t="n">
+        <v>20</v>
+      </c>
+      <c r="K1747" t="n">
+        <v>9</v>
+      </c>
+      <c r="L1747" t="n">
+        <v>15</v>
+      </c>
+      <c r="M1747" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1747" t="n">
+        <v>25</v>
+      </c>
+      <c r="O1747" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1747" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1747" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1747" t="inlineStr"/>
+    </row>
+    <row r="1748">
+      <c r="A1748" s="2" t="n">
+        <v>45463.42708333334</v>
+      </c>
+      <c r="B1748" t="n">
+        <v>16.6200008392334</v>
+      </c>
+      <c r="C1748" t="n">
+        <v>16.70000076293945</v>
+      </c>
+      <c r="D1748" t="n">
+        <v>16.59000015258789</v>
+      </c>
+      <c r="E1748" t="n">
+        <v>16.6299991607666</v>
+      </c>
+      <c r="F1748" t="n">
+        <v>16.6299991607666</v>
+      </c>
+      <c r="G1748" t="n">
+        <v>102709779</v>
+      </c>
+      <c r="H1748" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1748" t="n">
+        <v>6</v>
+      </c>
+      <c r="J1748" t="n">
+        <v>20</v>
+      </c>
+      <c r="K1748" t="n">
+        <v>10</v>
+      </c>
+      <c r="L1748" t="n">
+        <v>15</v>
+      </c>
+      <c r="M1748" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1748" t="n">
+        <v>25</v>
+      </c>
+      <c r="O1748" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1748" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1748" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1748" t="inlineStr"/>
+    </row>
+    <row r="1749">
+      <c r="A1749" s="2" t="n">
+        <v>45463.46875</v>
+      </c>
+      <c r="B1749" t="n">
+        <v>16.6200008392334</v>
+      </c>
+      <c r="C1749" t="n">
+        <v>16.73999977111816</v>
+      </c>
+      <c r="D1749" t="n">
+        <v>16.61000061035156</v>
+      </c>
+      <c r="E1749" t="n">
+        <v>16.69000053405762</v>
+      </c>
+      <c r="F1749" t="n">
+        <v>16.69000053405762</v>
+      </c>
+      <c r="G1749" t="n">
+        <v>70753512</v>
+      </c>
+      <c r="H1749" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1749" t="n">
+        <v>6</v>
+      </c>
+      <c r="J1749" t="n">
+        <v>20</v>
+      </c>
+      <c r="K1749" t="n">
+        <v>11</v>
+      </c>
+      <c r="L1749" t="n">
+        <v>15</v>
+      </c>
+      <c r="M1749" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1749" t="n">
+        <v>25</v>
+      </c>
+      <c r="O1749" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1749" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1749" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1749" t="inlineStr"/>
+    </row>
+    <row r="1750">
+      <c r="A1750" s="2" t="n">
+        <v>45463.51041666666</v>
+      </c>
+      <c r="B1750" t="n">
+        <v>16.69000053405762</v>
+      </c>
+      <c r="C1750" t="n">
+        <v>16.76000022888184</v>
+      </c>
+      <c r="D1750" t="n">
+        <v>16.61000061035156</v>
+      </c>
+      <c r="E1750" t="n">
+        <v>16.63999938964844</v>
+      </c>
+      <c r="F1750" t="n">
+        <v>16.63999938964844</v>
+      </c>
+      <c r="G1750" t="n">
+        <v>62174612</v>
+      </c>
+      <c r="H1750" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1750" t="n">
+        <v>6</v>
+      </c>
+      <c r="J1750" t="n">
+        <v>20</v>
+      </c>
+      <c r="K1750" t="n">
+        <v>12</v>
+      </c>
+      <c r="L1750" t="n">
+        <v>15</v>
+      </c>
+      <c r="M1750" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1750" t="n">
+        <v>25</v>
+      </c>
+      <c r="O1750" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1750" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1750" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1750" t="inlineStr"/>
+    </row>
+    <row r="1751">
+      <c r="A1751" s="2" t="n">
+        <v>45463.55208333334</v>
+      </c>
+      <c r="B1751" t="n">
+        <v>16.63999938964844</v>
+      </c>
+      <c r="C1751" t="n">
+        <v>16.72999954223633</v>
+      </c>
+      <c r="D1751" t="n">
+        <v>16.55999946594238</v>
+      </c>
+      <c r="E1751" t="n">
+        <v>16.6200008392334</v>
+      </c>
+      <c r="F1751" t="n">
+        <v>16.6200008392334</v>
+      </c>
+      <c r="G1751" t="n">
+        <v>66805758</v>
+      </c>
+      <c r="H1751" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1751" t="n">
+        <v>6</v>
+      </c>
+      <c r="J1751" t="n">
+        <v>20</v>
+      </c>
+      <c r="K1751" t="n">
+        <v>13</v>
+      </c>
+      <c r="L1751" t="n">
+        <v>15</v>
+      </c>
+      <c r="M1751" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1751" t="n">
+        <v>25</v>
+      </c>
+      <c r="O1751" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1751" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1751" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1751" t="inlineStr"/>
+    </row>
+    <row r="1752">
+      <c r="A1752" s="2" t="n">
+        <v>45463.59375</v>
+      </c>
+      <c r="B1752" t="n">
+        <v>16.61000061035156</v>
+      </c>
+      <c r="C1752" t="n">
+        <v>16.67000007629395</v>
+      </c>
+      <c r="D1752" t="n">
+        <v>16.51000022888184</v>
+      </c>
+      <c r="E1752" t="n">
+        <v>16.54000091552734</v>
+      </c>
+      <c r="F1752" t="n">
+        <v>16.54000091552734</v>
+      </c>
+      <c r="G1752" t="n">
+        <v>91261400</v>
+      </c>
+      <c r="H1752" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1752" t="n">
+        <v>6</v>
+      </c>
+      <c r="J1752" t="n">
+        <v>20</v>
+      </c>
+      <c r="K1752" t="n">
+        <v>14</v>
+      </c>
+      <c r="L1752" t="n">
+        <v>15</v>
+      </c>
+      <c r="M1752" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1752" t="n">
+        <v>25</v>
+      </c>
+      <c r="O1752" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1752" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1752" t="n">
+        <v>1</v>
+      </c>
+      <c r="R1752" t="inlineStr"/>
+    </row>
+    <row r="1753">
+      <c r="A1753" s="2" t="n">
+        <v>45463.63541666666</v>
+      </c>
+      <c r="B1753" t="n">
+        <v>16.54999923706055</v>
+      </c>
+      <c r="C1753" t="n">
+        <v>16.55999946594238</v>
+      </c>
+      <c r="D1753" t="n">
+        <v>16.45000076293945</v>
+      </c>
+      <c r="E1753" t="n">
+        <v>16.54999923706055</v>
+      </c>
+      <c r="F1753" t="n">
+        <v>16.54999923706055</v>
+      </c>
+      <c r="G1753" t="n">
+        <v>59030374</v>
+      </c>
+      <c r="H1753" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1753" t="n">
+        <v>6</v>
+      </c>
+      <c r="J1753" t="n">
+        <v>20</v>
+      </c>
+      <c r="K1753" t="n">
+        <v>15</v>
+      </c>
+      <c r="L1753" t="n">
+        <v>15</v>
+      </c>
+      <c r="M1753" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1753" t="n">
+        <v>25</v>
+      </c>
+      <c r="O1753" t="n">
+        <v>2</v>
+      </c>
+      <c r="P1753" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1753" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1753" t="inlineStr"/>
+    </row>
+    <row r="1754">
+      <c r="A1754" s="2" t="n">
+        <v>45464.38541666666</v>
+      </c>
+      <c r="B1754" t="n">
+        <v>16.59000015258789</v>
+      </c>
+      <c r="C1754" t="n">
+        <v>17.23999977111816</v>
+      </c>
+      <c r="D1754" t="n">
+        <v>16.55999946594238</v>
+      </c>
+      <c r="E1754" t="n">
+        <v>17.09000015258789</v>
+      </c>
+      <c r="F1754" t="n">
+        <v>17.09000015258789</v>
+      </c>
+      <c r="G1754" t="n">
+        <v>354445959</v>
+      </c>
+      <c r="H1754" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1754" t="n">
+        <v>6</v>
+      </c>
+      <c r="J1754" t="n">
+        <v>21</v>
+      </c>
+      <c r="K1754" t="n">
+        <v>9</v>
+      </c>
+      <c r="L1754" t="n">
+        <v>15</v>
+      </c>
+      <c r="M1754" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1754" t="n">
+        <v>25</v>
+      </c>
+      <c r="O1754" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1754" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1754" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1754" t="inlineStr"/>
+    </row>
+    <row r="1755">
+      <c r="A1755" s="2" t="n">
+        <v>45464.42708333334</v>
+      </c>
+      <c r="B1755" t="n">
+        <v>17.09000015258789</v>
+      </c>
+      <c r="C1755" t="n">
+        <v>17.25</v>
+      </c>
+      <c r="D1755" t="n">
+        <v>17.02000045776367</v>
+      </c>
+      <c r="E1755" t="n">
+        <v>17.17000007629395</v>
+      </c>
+      <c r="F1755" t="n">
+        <v>17.17000007629395</v>
+      </c>
+      <c r="G1755" t="n">
+        <v>229363174</v>
+      </c>
+      <c r="H1755" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1755" t="n">
+        <v>6</v>
+      </c>
+      <c r="J1755" t="n">
+        <v>21</v>
+      </c>
+      <c r="K1755" t="n">
+        <v>10</v>
+      </c>
+      <c r="L1755" t="n">
+        <v>15</v>
+      </c>
+      <c r="M1755" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1755" t="n">
+        <v>25</v>
+      </c>
+      <c r="O1755" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1755" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1755" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1755" t="inlineStr"/>
+    </row>
+    <row r="1756">
+      <c r="A1756" s="2" t="n">
+        <v>45464.46875</v>
+      </c>
+      <c r="B1756" t="n">
+        <v>17.15999984741211</v>
+      </c>
+      <c r="C1756" t="n">
+        <v>17.22999954223633</v>
+      </c>
+      <c r="D1756" t="n">
+        <v>17.10000038146973</v>
+      </c>
+      <c r="E1756" t="n">
+        <v>17.19000053405762</v>
+      </c>
+      <c r="F1756" t="n">
+        <v>17.19000053405762</v>
+      </c>
+      <c r="G1756" t="n">
+        <v>117865499</v>
+      </c>
+      <c r="H1756" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1756" t="n">
+        <v>6</v>
+      </c>
+      <c r="J1756" t="n">
+        <v>21</v>
+      </c>
+      <c r="K1756" t="n">
+        <v>11</v>
+      </c>
+      <c r="L1756" t="n">
+        <v>15</v>
+      </c>
+      <c r="M1756" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1756" t="n">
+        <v>25</v>
+      </c>
+      <c r="O1756" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1756" t="n">
+        <v>2</v>
+      </c>
+      <c r="Q1756" t="n">
+        <v>2</v>
+      </c>
+      <c r="R1756" t="inlineStr"/>
+    </row>
+    <row r="1757">
+      <c r="A1757" s="2" t="n">
+        <v>45464.51041666666</v>
+      </c>
+      <c r="B1757" t="n">
+        <v>17.18000030517578</v>
+      </c>
+      <c r="C1757" t="n">
+        <v>17.28000068664551</v>
+      </c>
+      <c r="D1757" t="n">
+        <v>16.95999908447266</v>
+      </c>
+      <c r="E1757" t="n">
+        <v>17.04999923706055</v>
+      </c>
+      <c r="F1757" t="n">
+        <v>17.04999923706055</v>
+      </c>
+      <c r="G1757" t="n">
+        <v>184002703</v>
+      </c>
+      <c r="H1757" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1757" t="n">
+        <v>6</v>
+      </c>
+      <c r="J1757" t="n">
+        <v>21</v>
+      </c>
+      <c r="K1757" t="n">
+        <v>12</v>
+      </c>
+      <c r="L1757" t="n">
+        <v>15</v>
+      </c>
+      <c r="M1757" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1757" t="n">
+        <v>25</v>
+      </c>
+      <c r="O1757" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1757" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1757" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1757" t="inlineStr"/>
+    </row>
+    <row r="1758">
+      <c r="A1758" s="2" t="n">
+        <v>45464.55208333334</v>
+      </c>
+      <c r="B1758" t="n">
+        <v>17.04999923706055</v>
+      </c>
+      <c r="C1758" t="n">
+        <v>17.19000053405762</v>
+      </c>
+      <c r="D1758" t="n">
+        <v>17.03000068664551</v>
+      </c>
+      <c r="E1758" t="n">
+        <v>17.11000061035156</v>
+      </c>
+      <c r="F1758" t="n">
+        <v>17.11000061035156</v>
+      </c>
+      <c r="G1758" t="n">
+        <v>108180661</v>
+      </c>
+      <c r="H1758" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1758" t="n">
+        <v>6</v>
+      </c>
+      <c r="J1758" t="n">
+        <v>21</v>
+      </c>
+      <c r="K1758" t="n">
+        <v>13</v>
+      </c>
+      <c r="L1758" t="n">
+        <v>15</v>
+      </c>
+      <c r="M1758" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1758" t="n">
+        <v>25</v>
+      </c>
+      <c r="O1758" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1758" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1758" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1758" t="inlineStr"/>
+    </row>
+    <row r="1759">
+      <c r="A1759" s="2" t="n">
+        <v>45464.59375</v>
+      </c>
+      <c r="B1759" t="n">
+        <v>17.1200008392334</v>
+      </c>
+      <c r="C1759" t="n">
+        <v>17.20000076293945</v>
+      </c>
+      <c r="D1759" t="n">
+        <v>17.05999946594238</v>
+      </c>
+      <c r="E1759" t="n">
+        <v>17.1200008392334</v>
+      </c>
+      <c r="F1759" t="n">
+        <v>17.1200008392334</v>
+      </c>
+      <c r="G1759" t="n">
+        <v>442783558</v>
+      </c>
+      <c r="H1759" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1759" t="n">
+        <v>6</v>
+      </c>
+      <c r="J1759" t="n">
+        <v>21</v>
+      </c>
+      <c r="K1759" t="n">
+        <v>14</v>
+      </c>
+      <c r="L1759" t="n">
+        <v>15</v>
+      </c>
+      <c r="M1759" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1759" t="n">
+        <v>25</v>
+      </c>
+      <c r="O1759" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1759" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1759" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1759" t="inlineStr"/>
+    </row>
+    <row r="1760">
+      <c r="A1760" s="2" t="n">
+        <v>45464.63541666666</v>
+      </c>
+      <c r="B1760" t="n">
+        <v>17.1200008392334</v>
+      </c>
+      <c r="C1760" t="n">
+        <v>17.20000076293945</v>
+      </c>
+      <c r="D1760" t="n">
+        <v>17.10000038146973</v>
+      </c>
+      <c r="E1760" t="n">
+        <v>17.10000038146973</v>
+      </c>
+      <c r="F1760" t="n">
+        <v>17.10000038146973</v>
+      </c>
+      <c r="G1760" t="n">
+        <v>317404701</v>
+      </c>
+      <c r="H1760" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1760" t="n">
+        <v>6</v>
+      </c>
+      <c r="J1760" t="n">
+        <v>21</v>
+      </c>
+      <c r="K1760" t="n">
+        <v>15</v>
+      </c>
+      <c r="L1760" t="n">
+        <v>15</v>
+      </c>
+      <c r="M1760" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1760" t="n">
+        <v>25</v>
+      </c>
+      <c r="O1760" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1760" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1760" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1760" t="inlineStr"/>
+    </row>
+    <row r="1761">
+      <c r="A1761" s="2" t="n">
+        <v>45467.38541666666</v>
+      </c>
+      <c r="B1761" t="n">
+        <v>16.95000076293945</v>
+      </c>
+      <c r="C1761" t="n">
+        <v>17.21999931335449</v>
+      </c>
+      <c r="D1761" t="n">
+        <v>16.86000061035156</v>
+      </c>
+      <c r="E1761" t="n">
+        <v>17.05999946594238</v>
+      </c>
+      <c r="F1761" t="n">
+        <v>17.05999946594238</v>
+      </c>
+      <c r="G1761" t="n">
+        <v>0</v>
+      </c>
+      <c r="H1761" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1761" t="n">
+        <v>6</v>
+      </c>
+      <c r="J1761" t="n">
+        <v>24</v>
+      </c>
+      <c r="K1761" t="n">
+        <v>9</v>
+      </c>
+      <c r="L1761" t="n">
+        <v>15</v>
+      </c>
+      <c r="M1761" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1761" t="n">
+        <v>26</v>
+      </c>
+      <c r="O1761" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1761" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1761" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1761" t="inlineStr"/>
+    </row>
+    <row r="1762">
+      <c r="A1762" s="2" t="n">
+        <v>45467.42708333334</v>
+      </c>
+      <c r="B1762" t="n">
+        <v>17.05999946594238</v>
+      </c>
+      <c r="C1762" t="n">
+        <v>17.18000030517578</v>
+      </c>
+      <c r="D1762" t="n">
+        <v>17.04000091552734</v>
+      </c>
+      <c r="E1762" t="n">
+        <v>17.04000091552734</v>
+      </c>
+      <c r="F1762" t="n">
+        <v>17.04000091552734</v>
+      </c>
+      <c r="G1762" t="n">
+        <v>138393994</v>
+      </c>
+      <c r="H1762" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1762" t="n">
+        <v>6</v>
+      </c>
+      <c r="J1762" t="n">
+        <v>24</v>
+      </c>
+      <c r="K1762" t="n">
+        <v>10</v>
+      </c>
+      <c r="L1762" t="n">
+        <v>15</v>
+      </c>
+      <c r="M1762" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1762" t="n">
+        <v>26</v>
+      </c>
+      <c r="O1762" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1762" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1762" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1762" t="inlineStr"/>
+    </row>
+    <row r="1763">
+      <c r="A1763" s="2" t="n">
+        <v>45467.46875</v>
+      </c>
+      <c r="B1763" t="n">
+        <v>17.04999923706055</v>
+      </c>
+      <c r="C1763" t="n">
+        <v>17.13999938964844</v>
+      </c>
+      <c r="D1763" t="n">
+        <v>17.04000091552734</v>
+      </c>
+      <c r="E1763" t="n">
+        <v>17.09000015258789</v>
+      </c>
+      <c r="F1763" t="n">
+        <v>17.09000015258789</v>
+      </c>
+      <c r="G1763" t="n">
+        <v>60996642</v>
+      </c>
+      <c r="H1763" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1763" t="n">
+        <v>6</v>
+      </c>
+      <c r="J1763" t="n">
+        <v>24</v>
+      </c>
+      <c r="K1763" t="n">
+        <v>11</v>
+      </c>
+      <c r="L1763" t="n">
+        <v>15</v>
+      </c>
+      <c r="M1763" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1763" t="n">
+        <v>26</v>
+      </c>
+      <c r="O1763" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1763" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1763" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1763" t="inlineStr"/>
+    </row>
+    <row r="1764">
+      <c r="A1764" s="2" t="n">
+        <v>45467.51041666666</v>
+      </c>
+      <c r="B1764" t="n">
+        <v>17.10000038146973</v>
+      </c>
+      <c r="C1764" t="n">
+        <v>17.17000007629395</v>
+      </c>
+      <c r="D1764" t="n">
+        <v>17.05999946594238</v>
+      </c>
+      <c r="E1764" t="n">
+        <v>17.06999969482422</v>
+      </c>
+      <c r="F1764" t="n">
+        <v>17.06999969482422</v>
+      </c>
+      <c r="G1764" t="n">
+        <v>66140549</v>
+      </c>
+      <c r="H1764" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1764" t="n">
+        <v>6</v>
+      </c>
+      <c r="J1764" t="n">
+        <v>24</v>
+      </c>
+      <c r="K1764" t="n">
+        <v>12</v>
+      </c>
+      <c r="L1764" t="n">
+        <v>15</v>
+      </c>
+      <c r="M1764" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1764" t="n">
+        <v>26</v>
+      </c>
+      <c r="O1764" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1764" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q1764" t="n">
+        <v>1</v>
+      </c>
+      <c r="R1764" t="inlineStr"/>
+    </row>
+    <row r="1765">
+      <c r="A1765" s="2" t="n">
+        <v>45467.55208333334</v>
+      </c>
+      <c r="B1765" t="n">
+        <v>17.06999969482422</v>
+      </c>
+      <c r="C1765" t="n">
+        <v>17.25</v>
+      </c>
+      <c r="D1765" t="n">
+        <v>17.06999969482422</v>
+      </c>
+      <c r="E1765" t="n">
+        <v>17.17000007629395</v>
+      </c>
+      <c r="F1765" t="n">
+        <v>17.17000007629395</v>
+      </c>
+      <c r="G1765" t="n">
+        <v>127698668</v>
+      </c>
+      <c r="H1765" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1765" t="n">
+        <v>6</v>
+      </c>
+      <c r="J1765" t="n">
+        <v>24</v>
+      </c>
+      <c r="K1765" t="n">
+        <v>13</v>
+      </c>
+      <c r="L1765" t="n">
+        <v>15</v>
+      </c>
+      <c r="M1765" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1765" t="n">
+        <v>26</v>
+      </c>
+      <c r="O1765" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1765" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1765" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1765" t="inlineStr"/>
+    </row>
+    <row r="1766">
+      <c r="A1766" s="2" t="n">
+        <v>45467.59375</v>
+      </c>
+      <c r="B1766" t="n">
+        <v>17.17000007629395</v>
+      </c>
+      <c r="C1766" t="n">
+        <v>17.28000068664551</v>
+      </c>
+      <c r="D1766" t="n">
+        <v>17.1299991607666</v>
+      </c>
+      <c r="E1766" t="n">
+        <v>17.27000045776367</v>
+      </c>
+      <c r="F1766" t="n">
+        <v>17.27000045776367</v>
+      </c>
+      <c r="G1766" t="n">
+        <v>217116943</v>
+      </c>
+      <c r="H1766" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1766" t="n">
+        <v>6</v>
+      </c>
+      <c r="J1766" t="n">
+        <v>24</v>
+      </c>
+      <c r="K1766" t="n">
+        <v>14</v>
+      </c>
+      <c r="L1766" t="n">
+        <v>15</v>
+      </c>
+      <c r="M1766" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1766" t="n">
+        <v>26</v>
+      </c>
+      <c r="O1766" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1766" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1766" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1766" t="inlineStr"/>
+    </row>
+    <row r="1767">
+      <c r="A1767" s="2" t="n">
+        <v>45467.63541666666</v>
+      </c>
+      <c r="B1767" t="n">
+        <v>17.27000045776367</v>
+      </c>
+      <c r="C1767" t="n">
+        <v>17.34000015258789</v>
+      </c>
+      <c r="D1767" t="n">
+        <v>17.23999977111816</v>
+      </c>
+      <c r="E1767" t="n">
+        <v>17.26000022888184</v>
+      </c>
+      <c r="F1767" t="n">
+        <v>17.26000022888184</v>
+      </c>
+      <c r="G1767" t="n">
+        <v>97952318</v>
+      </c>
+      <c r="H1767" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1767" t="n">
+        <v>6</v>
+      </c>
+      <c r="J1767" t="n">
+        <v>24</v>
+      </c>
+      <c r="K1767" t="n">
+        <v>15</v>
+      </c>
+      <c r="L1767" t="n">
+        <v>15</v>
+      </c>
+      <c r="M1767" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1767" t="n">
+        <v>26</v>
+      </c>
+      <c r="O1767" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1767" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1767" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1767" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/stock_historical_data/60m/IDEA.NS.xlsx
+++ b/stock_historical_data/60m/IDEA.NS.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:R1767"/>
+  <dimension ref="A1:R1781"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -98301,7 +98301,9 @@
       <c r="Q1747" t="n">
         <v>0</v>
       </c>
-      <c r="R1747" t="inlineStr"/>
+      <c r="R1747" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1748">
       <c r="A1748" s="2" t="n">
@@ -98355,7 +98357,9 @@
       <c r="Q1748" t="n">
         <v>0</v>
       </c>
-      <c r="R1748" t="inlineStr"/>
+      <c r="R1748" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1749">
       <c r="A1749" s="2" t="n">
@@ -98409,7 +98413,9 @@
       <c r="Q1749" t="n">
         <v>0</v>
       </c>
-      <c r="R1749" t="inlineStr"/>
+      <c r="R1749" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1750">
       <c r="A1750" s="2" t="n">
@@ -98463,7 +98469,9 @@
       <c r="Q1750" t="n">
         <v>0</v>
       </c>
-      <c r="R1750" t="inlineStr"/>
+      <c r="R1750" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1751">
       <c r="A1751" s="2" t="n">
@@ -98517,7 +98525,9 @@
       <c r="Q1751" t="n">
         <v>0</v>
       </c>
-      <c r="R1751" t="inlineStr"/>
+      <c r="R1751" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1752">
       <c r="A1752" s="2" t="n">
@@ -98571,7 +98581,9 @@
       <c r="Q1752" t="n">
         <v>1</v>
       </c>
-      <c r="R1752" t="inlineStr"/>
+      <c r="R1752" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1753">
       <c r="A1753" s="2" t="n">
@@ -98625,7 +98637,9 @@
       <c r="Q1753" t="n">
         <v>0</v>
       </c>
-      <c r="R1753" t="inlineStr"/>
+      <c r="R1753" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1754">
       <c r="A1754" s="2" t="n">
@@ -98679,7 +98693,9 @@
       <c r="Q1754" t="n">
         <v>0</v>
       </c>
-      <c r="R1754" t="inlineStr"/>
+      <c r="R1754" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1755">
       <c r="A1755" s="2" t="n">
@@ -98733,7 +98749,9 @@
       <c r="Q1755" t="n">
         <v>0</v>
       </c>
-      <c r="R1755" t="inlineStr"/>
+      <c r="R1755" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1756">
       <c r="A1756" s="2" t="n">
@@ -98787,7 +98805,9 @@
       <c r="Q1756" t="n">
         <v>2</v>
       </c>
-      <c r="R1756" t="inlineStr"/>
+      <c r="R1756" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="1757">
       <c r="A1757" s="2" t="n">
@@ -98841,7 +98861,9 @@
       <c r="Q1757" t="n">
         <v>0</v>
       </c>
-      <c r="R1757" t="inlineStr"/>
+      <c r="R1757" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1758">
       <c r="A1758" s="2" t="n">
@@ -98895,7 +98917,9 @@
       <c r="Q1758" t="n">
         <v>0</v>
       </c>
-      <c r="R1758" t="inlineStr"/>
+      <c r="R1758" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1759">
       <c r="A1759" s="2" t="n">
@@ -98949,7 +98973,9 @@
       <c r="Q1759" t="n">
         <v>0</v>
       </c>
-      <c r="R1759" t="inlineStr"/>
+      <c r="R1759" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1760">
       <c r="A1760" s="2" t="n">
@@ -99003,7 +99029,9 @@
       <c r="Q1760" t="n">
         <v>0</v>
       </c>
-      <c r="R1760" t="inlineStr"/>
+      <c r="R1760" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1761">
       <c r="A1761" s="2" t="n">
@@ -99057,7 +99085,9 @@
       <c r="Q1761" t="n">
         <v>0</v>
       </c>
-      <c r="R1761" t="inlineStr"/>
+      <c r="R1761" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1762">
       <c r="A1762" s="2" t="n">
@@ -99111,7 +99141,9 @@
       <c r="Q1762" t="n">
         <v>0</v>
       </c>
-      <c r="R1762" t="inlineStr"/>
+      <c r="R1762" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1763">
       <c r="A1763" s="2" t="n">
@@ -99165,7 +99197,9 @@
       <c r="Q1763" t="n">
         <v>0</v>
       </c>
-      <c r="R1763" t="inlineStr"/>
+      <c r="R1763" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1764">
       <c r="A1764" s="2" t="n">
@@ -99219,7 +99253,9 @@
       <c r="Q1764" t="n">
         <v>1</v>
       </c>
-      <c r="R1764" t="inlineStr"/>
+      <c r="R1764" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="1765">
       <c r="A1765" s="2" t="n">
@@ -99273,7 +99309,9 @@
       <c r="Q1765" t="n">
         <v>0</v>
       </c>
-      <c r="R1765" t="inlineStr"/>
+      <c r="R1765" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1766">
       <c r="A1766" s="2" t="n">
@@ -99327,7 +99365,9 @@
       <c r="Q1766" t="n">
         <v>0</v>
       </c>
-      <c r="R1766" t="inlineStr"/>
+      <c r="R1766" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1767">
       <c r="A1767" s="2" t="n">
@@ -99381,7 +99421,765 @@
       <c r="Q1767" t="n">
         <v>0</v>
       </c>
-      <c r="R1767" t="inlineStr"/>
+      <c r="R1767" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1768">
+      <c r="A1768" s="2" t="n">
+        <v>45468.38541666666</v>
+      </c>
+      <c r="B1768" t="n">
+        <v>17.38999938964844</v>
+      </c>
+      <c r="C1768" t="n">
+        <v>17.5</v>
+      </c>
+      <c r="D1768" t="n">
+        <v>17.18000030517578</v>
+      </c>
+      <c r="E1768" t="n">
+        <v>17.27000045776367</v>
+      </c>
+      <c r="F1768" t="n">
+        <v>17.27000045776367</v>
+      </c>
+      <c r="G1768" t="n">
+        <v>195188914</v>
+      </c>
+      <c r="H1768" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1768" t="n">
+        <v>6</v>
+      </c>
+      <c r="J1768" t="n">
+        <v>25</v>
+      </c>
+      <c r="K1768" t="n">
+        <v>9</v>
+      </c>
+      <c r="L1768" t="n">
+        <v>15</v>
+      </c>
+      <c r="M1768" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1768" t="n">
+        <v>26</v>
+      </c>
+      <c r="O1768" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1768" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1768" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1768" t="inlineStr"/>
+    </row>
+    <row r="1769">
+      <c r="A1769" s="2" t="n">
+        <v>45468.42708333334</v>
+      </c>
+      <c r="B1769" t="n">
+        <v>17.26000022888184</v>
+      </c>
+      <c r="C1769" t="n">
+        <v>17.3700008392334</v>
+      </c>
+      <c r="D1769" t="n">
+        <v>17.21999931335449</v>
+      </c>
+      <c r="E1769" t="n">
+        <v>17.25</v>
+      </c>
+      <c r="F1769" t="n">
+        <v>17.25</v>
+      </c>
+      <c r="G1769" t="n">
+        <v>76352757</v>
+      </c>
+      <c r="H1769" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1769" t="n">
+        <v>6</v>
+      </c>
+      <c r="J1769" t="n">
+        <v>25</v>
+      </c>
+      <c r="K1769" t="n">
+        <v>10</v>
+      </c>
+      <c r="L1769" t="n">
+        <v>15</v>
+      </c>
+      <c r="M1769" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1769" t="n">
+        <v>26</v>
+      </c>
+      <c r="O1769" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1769" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1769" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1769" t="inlineStr"/>
+    </row>
+    <row r="1770">
+      <c r="A1770" s="2" t="n">
+        <v>45468.46875</v>
+      </c>
+      <c r="B1770" t="n">
+        <v>17.25</v>
+      </c>
+      <c r="C1770" t="n">
+        <v>17.46999931335449</v>
+      </c>
+      <c r="D1770" t="n">
+        <v>17.21999931335449</v>
+      </c>
+      <c r="E1770" t="n">
+        <v>17.36000061035156</v>
+      </c>
+      <c r="F1770" t="n">
+        <v>17.36000061035156</v>
+      </c>
+      <c r="G1770" t="n">
+        <v>114174373</v>
+      </c>
+      <c r="H1770" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1770" t="n">
+        <v>6</v>
+      </c>
+      <c r="J1770" t="n">
+        <v>25</v>
+      </c>
+      <c r="K1770" t="n">
+        <v>11</v>
+      </c>
+      <c r="L1770" t="n">
+        <v>15</v>
+      </c>
+      <c r="M1770" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1770" t="n">
+        <v>26</v>
+      </c>
+      <c r="O1770" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1770" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1770" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1770" t="inlineStr"/>
+    </row>
+    <row r="1771">
+      <c r="A1771" s="2" t="n">
+        <v>45468.51041666666</v>
+      </c>
+      <c r="B1771" t="n">
+        <v>17.36000061035156</v>
+      </c>
+      <c r="C1771" t="n">
+        <v>17.3799991607666</v>
+      </c>
+      <c r="D1771" t="n">
+        <v>17.29000091552734</v>
+      </c>
+      <c r="E1771" t="n">
+        <v>17.35000038146973</v>
+      </c>
+      <c r="F1771" t="n">
+        <v>17.35000038146973</v>
+      </c>
+      <c r="G1771" t="n">
+        <v>56034571</v>
+      </c>
+      <c r="H1771" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1771" t="n">
+        <v>6</v>
+      </c>
+      <c r="J1771" t="n">
+        <v>25</v>
+      </c>
+      <c r="K1771" t="n">
+        <v>12</v>
+      </c>
+      <c r="L1771" t="n">
+        <v>15</v>
+      </c>
+      <c r="M1771" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1771" t="n">
+        <v>26</v>
+      </c>
+      <c r="O1771" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1771" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1771" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1771" t="inlineStr"/>
+    </row>
+    <row r="1772">
+      <c r="A1772" s="2" t="n">
+        <v>45468.55208333334</v>
+      </c>
+      <c r="B1772" t="n">
+        <v>17.32999992370605</v>
+      </c>
+      <c r="C1772" t="n">
+        <v>17.38999938964844</v>
+      </c>
+      <c r="D1772" t="n">
+        <v>17.28000068664551</v>
+      </c>
+      <c r="E1772" t="n">
+        <v>17.36000061035156</v>
+      </c>
+      <c r="F1772" t="n">
+        <v>17.36000061035156</v>
+      </c>
+      <c r="G1772" t="n">
+        <v>61708083</v>
+      </c>
+      <c r="H1772" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1772" t="n">
+        <v>6</v>
+      </c>
+      <c r="J1772" t="n">
+        <v>25</v>
+      </c>
+      <c r="K1772" t="n">
+        <v>13</v>
+      </c>
+      <c r="L1772" t="n">
+        <v>15</v>
+      </c>
+      <c r="M1772" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1772" t="n">
+        <v>26</v>
+      </c>
+      <c r="O1772" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1772" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1772" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1772" t="inlineStr"/>
+    </row>
+    <row r="1773">
+      <c r="A1773" s="2" t="n">
+        <v>45468.59375</v>
+      </c>
+      <c r="B1773" t="n">
+        <v>17.36000061035156</v>
+      </c>
+      <c r="C1773" t="n">
+        <v>17.36000061035156</v>
+      </c>
+      <c r="D1773" t="n">
+        <v>17.18000030517578</v>
+      </c>
+      <c r="E1773" t="n">
+        <v>17.22999954223633</v>
+      </c>
+      <c r="F1773" t="n">
+        <v>17.22999954223633</v>
+      </c>
+      <c r="G1773" t="n">
+        <v>112647145</v>
+      </c>
+      <c r="H1773" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1773" t="n">
+        <v>6</v>
+      </c>
+      <c r="J1773" t="n">
+        <v>25</v>
+      </c>
+      <c r="K1773" t="n">
+        <v>14</v>
+      </c>
+      <c r="L1773" t="n">
+        <v>15</v>
+      </c>
+      <c r="M1773" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1773" t="n">
+        <v>26</v>
+      </c>
+      <c r="O1773" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1773" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1773" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1773" t="inlineStr"/>
+    </row>
+    <row r="1774">
+      <c r="A1774" s="2" t="n">
+        <v>45468.63541666666</v>
+      </c>
+      <c r="B1774" t="n">
+        <v>17.21999931335449</v>
+      </c>
+      <c r="C1774" t="n">
+        <v>17.22999954223633</v>
+      </c>
+      <c r="D1774" t="n">
+        <v>17.14999961853027</v>
+      </c>
+      <c r="E1774" t="n">
+        <v>17.21999931335449</v>
+      </c>
+      <c r="F1774" t="n">
+        <v>17.21999931335449</v>
+      </c>
+      <c r="G1774" t="n">
+        <v>47750776</v>
+      </c>
+      <c r="H1774" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1774" t="n">
+        <v>6</v>
+      </c>
+      <c r="J1774" t="n">
+        <v>25</v>
+      </c>
+      <c r="K1774" t="n">
+        <v>15</v>
+      </c>
+      <c r="L1774" t="n">
+        <v>15</v>
+      </c>
+      <c r="M1774" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1774" t="n">
+        <v>26</v>
+      </c>
+      <c r="O1774" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1774" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1774" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1774" t="inlineStr"/>
+    </row>
+    <row r="1775">
+      <c r="A1775" s="2" t="n">
+        <v>45469.38541666666</v>
+      </c>
+      <c r="B1775" t="n">
+        <v>17.25</v>
+      </c>
+      <c r="C1775" t="n">
+        <v>17.54999923706055</v>
+      </c>
+      <c r="D1775" t="n">
+        <v>17.25</v>
+      </c>
+      <c r="E1775" t="n">
+        <v>17.34000015258789</v>
+      </c>
+      <c r="F1775" t="n">
+        <v>17.34000015258789</v>
+      </c>
+      <c r="G1775" t="n">
+        <v>0</v>
+      </c>
+      <c r="H1775" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1775" t="n">
+        <v>6</v>
+      </c>
+      <c r="J1775" t="n">
+        <v>26</v>
+      </c>
+      <c r="K1775" t="n">
+        <v>9</v>
+      </c>
+      <c r="L1775" t="n">
+        <v>15</v>
+      </c>
+      <c r="M1775" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1775" t="n">
+        <v>26</v>
+      </c>
+      <c r="O1775" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1775" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1775" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1775" t="inlineStr"/>
+    </row>
+    <row r="1776">
+      <c r="A1776" s="2" t="n">
+        <v>45469.42708333334</v>
+      </c>
+      <c r="B1776" t="n">
+        <v>17.32999992370605</v>
+      </c>
+      <c r="C1776" t="n">
+        <v>17.48999977111816</v>
+      </c>
+      <c r="D1776" t="n">
+        <v>17.31999969482422</v>
+      </c>
+      <c r="E1776" t="n">
+        <v>17.42000007629395</v>
+      </c>
+      <c r="F1776" t="n">
+        <v>17.42000007629395</v>
+      </c>
+      <c r="G1776" t="n">
+        <v>80065540</v>
+      </c>
+      <c r="H1776" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1776" t="n">
+        <v>6</v>
+      </c>
+      <c r="J1776" t="n">
+        <v>26</v>
+      </c>
+      <c r="K1776" t="n">
+        <v>10</v>
+      </c>
+      <c r="L1776" t="n">
+        <v>15</v>
+      </c>
+      <c r="M1776" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1776" t="n">
+        <v>26</v>
+      </c>
+      <c r="O1776" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1776" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1776" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1776" t="inlineStr"/>
+    </row>
+    <row r="1777">
+      <c r="A1777" s="2" t="n">
+        <v>45469.46875</v>
+      </c>
+      <c r="B1777" t="n">
+        <v>17.43000030517578</v>
+      </c>
+      <c r="C1777" t="n">
+        <v>17.59000015258789</v>
+      </c>
+      <c r="D1777" t="n">
+        <v>17.42000007629395</v>
+      </c>
+      <c r="E1777" t="n">
+        <v>17.55999946594238</v>
+      </c>
+      <c r="F1777" t="n">
+        <v>17.55999946594238</v>
+      </c>
+      <c r="G1777" t="n">
+        <v>135406387</v>
+      </c>
+      <c r="H1777" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1777" t="n">
+        <v>6</v>
+      </c>
+      <c r="J1777" t="n">
+        <v>26</v>
+      </c>
+      <c r="K1777" t="n">
+        <v>11</v>
+      </c>
+      <c r="L1777" t="n">
+        <v>15</v>
+      </c>
+      <c r="M1777" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1777" t="n">
+        <v>26</v>
+      </c>
+      <c r="O1777" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1777" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1777" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1777" t="inlineStr"/>
+    </row>
+    <row r="1778">
+      <c r="A1778" s="2" t="n">
+        <v>45469.51041666666</v>
+      </c>
+      <c r="B1778" t="n">
+        <v>17.57999992370605</v>
+      </c>
+      <c r="C1778" t="n">
+        <v>17.70999908447266</v>
+      </c>
+      <c r="D1778" t="n">
+        <v>17.44000053405762</v>
+      </c>
+      <c r="E1778" t="n">
+        <v>17.6299991607666</v>
+      </c>
+      <c r="F1778" t="n">
+        <v>17.6299991607666</v>
+      </c>
+      <c r="G1778" t="n">
+        <v>171863126</v>
+      </c>
+      <c r="H1778" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1778" t="n">
+        <v>6</v>
+      </c>
+      <c r="J1778" t="n">
+        <v>26</v>
+      </c>
+      <c r="K1778" t="n">
+        <v>12</v>
+      </c>
+      <c r="L1778" t="n">
+        <v>15</v>
+      </c>
+      <c r="M1778" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1778" t="n">
+        <v>26</v>
+      </c>
+      <c r="O1778" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1778" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1778" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1778" t="inlineStr"/>
+    </row>
+    <row r="1779">
+      <c r="A1779" s="2" t="n">
+        <v>45469.55208333334</v>
+      </c>
+      <c r="B1779" t="n">
+        <v>17.6299991607666</v>
+      </c>
+      <c r="C1779" t="n">
+        <v>18.03000068664551</v>
+      </c>
+      <c r="D1779" t="n">
+        <v>17.6200008392334</v>
+      </c>
+      <c r="E1779" t="n">
+        <v>18.01000022888184</v>
+      </c>
+      <c r="F1779" t="n">
+        <v>18.01000022888184</v>
+      </c>
+      <c r="G1779" t="n">
+        <v>270859148</v>
+      </c>
+      <c r="H1779" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1779" t="n">
+        <v>6</v>
+      </c>
+      <c r="J1779" t="n">
+        <v>26</v>
+      </c>
+      <c r="K1779" t="n">
+        <v>13</v>
+      </c>
+      <c r="L1779" t="n">
+        <v>15</v>
+      </c>
+      <c r="M1779" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1779" t="n">
+        <v>26</v>
+      </c>
+      <c r="O1779" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1779" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1779" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1779" t="inlineStr"/>
+    </row>
+    <row r="1780">
+      <c r="A1780" s="2" t="n">
+        <v>45469.59375</v>
+      </c>
+      <c r="B1780" t="n">
+        <v>18.02000045776367</v>
+      </c>
+      <c r="C1780" t="n">
+        <v>18.46999931335449</v>
+      </c>
+      <c r="D1780" t="n">
+        <v>17.92000007629395</v>
+      </c>
+      <c r="E1780" t="n">
+        <v>18.03000068664551</v>
+      </c>
+      <c r="F1780" t="n">
+        <v>18.03000068664551</v>
+      </c>
+      <c r="G1780" t="n">
+        <v>528622366</v>
+      </c>
+      <c r="H1780" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1780" t="n">
+        <v>6</v>
+      </c>
+      <c r="J1780" t="n">
+        <v>26</v>
+      </c>
+      <c r="K1780" t="n">
+        <v>14</v>
+      </c>
+      <c r="L1780" t="n">
+        <v>15</v>
+      </c>
+      <c r="M1780" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1780" t="n">
+        <v>26</v>
+      </c>
+      <c r="O1780" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1780" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1780" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1780" t="inlineStr"/>
+    </row>
+    <row r="1781">
+      <c r="A1781" s="2" t="n">
+        <v>45469.63541666666</v>
+      </c>
+      <c r="B1781" t="n">
+        <v>18.03000068664551</v>
+      </c>
+      <c r="C1781" t="n">
+        <v>18.09000015258789</v>
+      </c>
+      <c r="D1781" t="n">
+        <v>17.95000076293945</v>
+      </c>
+      <c r="E1781" t="n">
+        <v>18.02000045776367</v>
+      </c>
+      <c r="F1781" t="n">
+        <v>18.02000045776367</v>
+      </c>
+      <c r="G1781" t="n">
+        <v>73020825</v>
+      </c>
+      <c r="H1781" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1781" t="n">
+        <v>6</v>
+      </c>
+      <c r="J1781" t="n">
+        <v>26</v>
+      </c>
+      <c r="K1781" t="n">
+        <v>15</v>
+      </c>
+      <c r="L1781" t="n">
+        <v>15</v>
+      </c>
+      <c r="M1781" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1781" t="n">
+        <v>26</v>
+      </c>
+      <c r="O1781" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1781" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1781" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1781" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/stock_historical_data/60m/IDEA.NS.xlsx
+++ b/stock_historical_data/60m/IDEA.NS.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:R1781"/>
+  <dimension ref="A1:R1788"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -99477,7 +99477,9 @@
       <c r="Q1768" t="n">
         <v>0</v>
       </c>
-      <c r="R1768" t="inlineStr"/>
+      <c r="R1768" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1769">
       <c r="A1769" s="2" t="n">
@@ -99531,7 +99533,9 @@
       <c r="Q1769" t="n">
         <v>0</v>
       </c>
-      <c r="R1769" t="inlineStr"/>
+      <c r="R1769" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1770">
       <c r="A1770" s="2" t="n">
@@ -99585,7 +99589,9 @@
       <c r="Q1770" t="n">
         <v>0</v>
       </c>
-      <c r="R1770" t="inlineStr"/>
+      <c r="R1770" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1771">
       <c r="A1771" s="2" t="n">
@@ -99639,7 +99645,9 @@
       <c r="Q1771" t="n">
         <v>0</v>
       </c>
-      <c r="R1771" t="inlineStr"/>
+      <c r="R1771" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1772">
       <c r="A1772" s="2" t="n">
@@ -99693,7 +99701,9 @@
       <c r="Q1772" t="n">
         <v>0</v>
       </c>
-      <c r="R1772" t="inlineStr"/>
+      <c r="R1772" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1773">
       <c r="A1773" s="2" t="n">
@@ -99747,7 +99757,9 @@
       <c r="Q1773" t="n">
         <v>0</v>
       </c>
-      <c r="R1773" t="inlineStr"/>
+      <c r="R1773" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1774">
       <c r="A1774" s="2" t="n">
@@ -99801,7 +99813,9 @@
       <c r="Q1774" t="n">
         <v>0</v>
       </c>
-      <c r="R1774" t="inlineStr"/>
+      <c r="R1774" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1775">
       <c r="A1775" s="2" t="n">
@@ -99855,7 +99869,9 @@
       <c r="Q1775" t="n">
         <v>0</v>
       </c>
-      <c r="R1775" t="inlineStr"/>
+      <c r="R1775" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1776">
       <c r="A1776" s="2" t="n">
@@ -99909,7 +99925,9 @@
       <c r="Q1776" t="n">
         <v>0</v>
       </c>
-      <c r="R1776" t="inlineStr"/>
+      <c r="R1776" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1777">
       <c r="A1777" s="2" t="n">
@@ -99963,7 +99981,9 @@
       <c r="Q1777" t="n">
         <v>0</v>
       </c>
-      <c r="R1777" t="inlineStr"/>
+      <c r="R1777" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1778">
       <c r="A1778" s="2" t="n">
@@ -100017,7 +100037,9 @@
       <c r="Q1778" t="n">
         <v>0</v>
       </c>
-      <c r="R1778" t="inlineStr"/>
+      <c r="R1778" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1779">
       <c r="A1779" s="2" t="n">
@@ -100071,7 +100093,9 @@
       <c r="Q1779" t="n">
         <v>0</v>
       </c>
-      <c r="R1779" t="inlineStr"/>
+      <c r="R1779" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1780">
       <c r="A1780" s="2" t="n">
@@ -100125,7 +100149,9 @@
       <c r="Q1780" t="n">
         <v>0</v>
       </c>
-      <c r="R1780" t="inlineStr"/>
+      <c r="R1780" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1781">
       <c r="A1781" s="2" t="n">
@@ -100179,7 +100205,387 @@
       <c r="Q1781" t="n">
         <v>0</v>
       </c>
-      <c r="R1781" t="inlineStr"/>
+      <c r="R1781" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1782">
+      <c r="A1782" s="2" t="n">
+        <v>45470.38541666666</v>
+      </c>
+      <c r="B1782" t="n">
+        <v>18.26000022888184</v>
+      </c>
+      <c r="C1782" t="n">
+        <v>18.34000015258789</v>
+      </c>
+      <c r="D1782" t="n">
+        <v>18.04999923706055</v>
+      </c>
+      <c r="E1782" t="n">
+        <v>18.23999977111816</v>
+      </c>
+      <c r="F1782" t="n">
+        <v>18.23999977111816</v>
+      </c>
+      <c r="G1782" t="n">
+        <v>376868258</v>
+      </c>
+      <c r="H1782" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1782" t="n">
+        <v>6</v>
+      </c>
+      <c r="J1782" t="n">
+        <v>27</v>
+      </c>
+      <c r="K1782" t="n">
+        <v>9</v>
+      </c>
+      <c r="L1782" t="n">
+        <v>15</v>
+      </c>
+      <c r="M1782" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1782" t="n">
+        <v>26</v>
+      </c>
+      <c r="O1782" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1782" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1782" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1782" t="inlineStr"/>
+    </row>
+    <row r="1783">
+      <c r="A1783" s="2" t="n">
+        <v>45470.42708333334</v>
+      </c>
+      <c r="B1783" t="n">
+        <v>18.23999977111816</v>
+      </c>
+      <c r="C1783" t="n">
+        <v>18.38999938964844</v>
+      </c>
+      <c r="D1783" t="n">
+        <v>18</v>
+      </c>
+      <c r="E1783" t="n">
+        <v>18.18000030517578</v>
+      </c>
+      <c r="F1783" t="n">
+        <v>18.18000030517578</v>
+      </c>
+      <c r="G1783" t="n">
+        <v>230016930</v>
+      </c>
+      <c r="H1783" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1783" t="n">
+        <v>6</v>
+      </c>
+      <c r="J1783" t="n">
+        <v>27</v>
+      </c>
+      <c r="K1783" t="n">
+        <v>10</v>
+      </c>
+      <c r="L1783" t="n">
+        <v>15</v>
+      </c>
+      <c r="M1783" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1783" t="n">
+        <v>26</v>
+      </c>
+      <c r="O1783" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1783" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1783" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1783" t="inlineStr"/>
+    </row>
+    <row r="1784">
+      <c r="A1784" s="2" t="n">
+        <v>45470.46875</v>
+      </c>
+      <c r="B1784" t="n">
+        <v>18.18000030517578</v>
+      </c>
+      <c r="C1784" t="n">
+        <v>18.28000068664551</v>
+      </c>
+      <c r="D1784" t="n">
+        <v>18.05999946594238</v>
+      </c>
+      <c r="E1784" t="n">
+        <v>18.27000045776367</v>
+      </c>
+      <c r="F1784" t="n">
+        <v>18.27000045776367</v>
+      </c>
+      <c r="G1784" t="n">
+        <v>146672090</v>
+      </c>
+      <c r="H1784" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1784" t="n">
+        <v>6</v>
+      </c>
+      <c r="J1784" t="n">
+        <v>27</v>
+      </c>
+      <c r="K1784" t="n">
+        <v>11</v>
+      </c>
+      <c r="L1784" t="n">
+        <v>15</v>
+      </c>
+      <c r="M1784" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1784" t="n">
+        <v>26</v>
+      </c>
+      <c r="O1784" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1784" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1784" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1784" t="inlineStr"/>
+    </row>
+    <row r="1785">
+      <c r="A1785" s="2" t="n">
+        <v>45470.51041666666</v>
+      </c>
+      <c r="B1785" t="n">
+        <v>18.27000045776367</v>
+      </c>
+      <c r="C1785" t="n">
+        <v>18.28000068664551</v>
+      </c>
+      <c r="D1785" t="n">
+        <v>18.10000038146973</v>
+      </c>
+      <c r="E1785" t="n">
+        <v>18.1299991607666</v>
+      </c>
+      <c r="F1785" t="n">
+        <v>18.1299991607666</v>
+      </c>
+      <c r="G1785" t="n">
+        <v>90523471</v>
+      </c>
+      <c r="H1785" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1785" t="n">
+        <v>6</v>
+      </c>
+      <c r="J1785" t="n">
+        <v>27</v>
+      </c>
+      <c r="K1785" t="n">
+        <v>12</v>
+      </c>
+      <c r="L1785" t="n">
+        <v>15</v>
+      </c>
+      <c r="M1785" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1785" t="n">
+        <v>26</v>
+      </c>
+      <c r="O1785" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1785" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1785" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1785" t="inlineStr"/>
+    </row>
+    <row r="1786">
+      <c r="A1786" s="2" t="n">
+        <v>45470.55208333334</v>
+      </c>
+      <c r="B1786" t="n">
+        <v>18.1200008392334</v>
+      </c>
+      <c r="C1786" t="n">
+        <v>18.27000045776367</v>
+      </c>
+      <c r="D1786" t="n">
+        <v>18.04000091552734</v>
+      </c>
+      <c r="E1786" t="n">
+        <v>18.15999984741211</v>
+      </c>
+      <c r="F1786" t="n">
+        <v>18.15999984741211</v>
+      </c>
+      <c r="G1786" t="n">
+        <v>146473847</v>
+      </c>
+      <c r="H1786" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1786" t="n">
+        <v>6</v>
+      </c>
+      <c r="J1786" t="n">
+        <v>27</v>
+      </c>
+      <c r="K1786" t="n">
+        <v>13</v>
+      </c>
+      <c r="L1786" t="n">
+        <v>15</v>
+      </c>
+      <c r="M1786" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1786" t="n">
+        <v>26</v>
+      </c>
+      <c r="O1786" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1786" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1786" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1786" t="inlineStr"/>
+    </row>
+    <row r="1787">
+      <c r="A1787" s="2" t="n">
+        <v>45470.59375</v>
+      </c>
+      <c r="B1787" t="n">
+        <v>18.15999984741211</v>
+      </c>
+      <c r="C1787" t="n">
+        <v>18.5</v>
+      </c>
+      <c r="D1787" t="n">
+        <v>18.15999984741211</v>
+      </c>
+      <c r="E1787" t="n">
+        <v>18.45000076293945</v>
+      </c>
+      <c r="F1787" t="n">
+        <v>18.45000076293945</v>
+      </c>
+      <c r="G1787" t="n">
+        <v>363802440</v>
+      </c>
+      <c r="H1787" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1787" t="n">
+        <v>6</v>
+      </c>
+      <c r="J1787" t="n">
+        <v>27</v>
+      </c>
+      <c r="K1787" t="n">
+        <v>14</v>
+      </c>
+      <c r="L1787" t="n">
+        <v>15</v>
+      </c>
+      <c r="M1787" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1787" t="n">
+        <v>26</v>
+      </c>
+      <c r="O1787" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1787" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1787" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1787" t="inlineStr"/>
+    </row>
+    <row r="1788">
+      <c r="A1788" s="2" t="n">
+        <v>45470.63541666666</v>
+      </c>
+      <c r="B1788" t="n">
+        <v>18.45000076293945</v>
+      </c>
+      <c r="C1788" t="n">
+        <v>18.70000076293945</v>
+      </c>
+      <c r="D1788" t="n">
+        <v>18.45000076293945</v>
+      </c>
+      <c r="E1788" t="n">
+        <v>18.52000045776367</v>
+      </c>
+      <c r="F1788" t="n">
+        <v>18.52000045776367</v>
+      </c>
+      <c r="G1788" t="n">
+        <v>168286472</v>
+      </c>
+      <c r="H1788" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1788" t="n">
+        <v>6</v>
+      </c>
+      <c r="J1788" t="n">
+        <v>27</v>
+      </c>
+      <c r="K1788" t="n">
+        <v>15</v>
+      </c>
+      <c r="L1788" t="n">
+        <v>15</v>
+      </c>
+      <c r="M1788" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1788" t="n">
+        <v>26</v>
+      </c>
+      <c r="O1788" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1788" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1788" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1788" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/stock_historical_data/60m/IDEA.NS.xlsx
+++ b/stock_historical_data/60m/IDEA.NS.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:R1788"/>
+  <dimension ref="A1:R1795"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -100261,7 +100261,9 @@
       <c r="Q1782" t="n">
         <v>0</v>
       </c>
-      <c r="R1782" t="inlineStr"/>
+      <c r="R1782" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1783">
       <c r="A1783" s="2" t="n">
@@ -100315,7 +100317,9 @@
       <c r="Q1783" t="n">
         <v>0</v>
       </c>
-      <c r="R1783" t="inlineStr"/>
+      <c r="R1783" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1784">
       <c r="A1784" s="2" t="n">
@@ -100369,7 +100373,9 @@
       <c r="Q1784" t="n">
         <v>0</v>
       </c>
-      <c r="R1784" t="inlineStr"/>
+      <c r="R1784" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1785">
       <c r="A1785" s="2" t="n">
@@ -100423,7 +100429,9 @@
       <c r="Q1785" t="n">
         <v>0</v>
       </c>
-      <c r="R1785" t="inlineStr"/>
+      <c r="R1785" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1786">
       <c r="A1786" s="2" t="n">
@@ -100477,7 +100485,9 @@
       <c r="Q1786" t="n">
         <v>0</v>
       </c>
-      <c r="R1786" t="inlineStr"/>
+      <c r="R1786" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1787">
       <c r="A1787" s="2" t="n">
@@ -100531,7 +100541,9 @@
       <c r="Q1787" t="n">
         <v>0</v>
       </c>
-      <c r="R1787" t="inlineStr"/>
+      <c r="R1787" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1788">
       <c r="A1788" s="2" t="n">
@@ -100585,7 +100597,387 @@
       <c r="Q1788" t="n">
         <v>0</v>
       </c>
-      <c r="R1788" t="inlineStr"/>
+      <c r="R1788" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1789">
+      <c r="A1789" s="2" t="n">
+        <v>45471.38541666666</v>
+      </c>
+      <c r="B1789" t="n">
+        <v>19.06999969482422</v>
+      </c>
+      <c r="C1789" t="n">
+        <v>19.06999969482422</v>
+      </c>
+      <c r="D1789" t="n">
+        <v>17.90999984741211</v>
+      </c>
+      <c r="E1789" t="n">
+        <v>18.25</v>
+      </c>
+      <c r="F1789" t="n">
+        <v>18.25</v>
+      </c>
+      <c r="G1789" t="n">
+        <v>0</v>
+      </c>
+      <c r="H1789" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1789" t="n">
+        <v>6</v>
+      </c>
+      <c r="J1789" t="n">
+        <v>28</v>
+      </c>
+      <c r="K1789" t="n">
+        <v>9</v>
+      </c>
+      <c r="L1789" t="n">
+        <v>15</v>
+      </c>
+      <c r="M1789" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1789" t="n">
+        <v>26</v>
+      </c>
+      <c r="O1789" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1789" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1789" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1789" t="inlineStr"/>
+    </row>
+    <row r="1790">
+      <c r="A1790" s="2" t="n">
+        <v>45471.42708333334</v>
+      </c>
+      <c r="B1790" t="n">
+        <v>18.25</v>
+      </c>
+      <c r="C1790" t="n">
+        <v>18.34000015258789</v>
+      </c>
+      <c r="D1790" t="n">
+        <v>18.10000038146973</v>
+      </c>
+      <c r="E1790" t="n">
+        <v>18.26000022888184</v>
+      </c>
+      <c r="F1790" t="n">
+        <v>18.26000022888184</v>
+      </c>
+      <c r="G1790" t="n">
+        <v>150271255</v>
+      </c>
+      <c r="H1790" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1790" t="n">
+        <v>6</v>
+      </c>
+      <c r="J1790" t="n">
+        <v>28</v>
+      </c>
+      <c r="K1790" t="n">
+        <v>10</v>
+      </c>
+      <c r="L1790" t="n">
+        <v>15</v>
+      </c>
+      <c r="M1790" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1790" t="n">
+        <v>26</v>
+      </c>
+      <c r="O1790" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1790" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1790" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1790" t="inlineStr"/>
+    </row>
+    <row r="1791">
+      <c r="A1791" s="2" t="n">
+        <v>45471.46875</v>
+      </c>
+      <c r="B1791" t="n">
+        <v>18.27000045776367</v>
+      </c>
+      <c r="C1791" t="n">
+        <v>18.29000091552734</v>
+      </c>
+      <c r="D1791" t="n">
+        <v>17.70000076293945</v>
+      </c>
+      <c r="E1791" t="n">
+        <v>17.71999931335449</v>
+      </c>
+      <c r="F1791" t="n">
+        <v>17.71999931335449</v>
+      </c>
+      <c r="G1791" t="n">
+        <v>307870504</v>
+      </c>
+      <c r="H1791" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1791" t="n">
+        <v>6</v>
+      </c>
+      <c r="J1791" t="n">
+        <v>28</v>
+      </c>
+      <c r="K1791" t="n">
+        <v>11</v>
+      </c>
+      <c r="L1791" t="n">
+        <v>15</v>
+      </c>
+      <c r="M1791" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1791" t="n">
+        <v>26</v>
+      </c>
+      <c r="O1791" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1791" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1791" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1791" t="inlineStr"/>
+    </row>
+    <row r="1792">
+      <c r="A1792" s="2" t="n">
+        <v>45471.51041666666</v>
+      </c>
+      <c r="B1792" t="n">
+        <v>17.71999931335449</v>
+      </c>
+      <c r="C1792" t="n">
+        <v>17.95000076293945</v>
+      </c>
+      <c r="D1792" t="n">
+        <v>17.55999946594238</v>
+      </c>
+      <c r="E1792" t="n">
+        <v>17.94000053405762</v>
+      </c>
+      <c r="F1792" t="n">
+        <v>17.94000053405762</v>
+      </c>
+      <c r="G1792" t="n">
+        <v>240148447</v>
+      </c>
+      <c r="H1792" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1792" t="n">
+        <v>6</v>
+      </c>
+      <c r="J1792" t="n">
+        <v>28</v>
+      </c>
+      <c r="K1792" t="n">
+        <v>12</v>
+      </c>
+      <c r="L1792" t="n">
+        <v>15</v>
+      </c>
+      <c r="M1792" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1792" t="n">
+        <v>26</v>
+      </c>
+      <c r="O1792" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1792" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1792" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1792" t="inlineStr"/>
+    </row>
+    <row r="1793">
+      <c r="A1793" s="2" t="n">
+        <v>45471.55208333334</v>
+      </c>
+      <c r="B1793" t="n">
+        <v>17.95000076293945</v>
+      </c>
+      <c r="C1793" t="n">
+        <v>18.10000038146973</v>
+      </c>
+      <c r="D1793" t="n">
+        <v>17.90999984741211</v>
+      </c>
+      <c r="E1793" t="n">
+        <v>17.95999908447266</v>
+      </c>
+      <c r="F1793" t="n">
+        <v>17.95999908447266</v>
+      </c>
+      <c r="G1793" t="n">
+        <v>140028125</v>
+      </c>
+      <c r="H1793" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1793" t="n">
+        <v>6</v>
+      </c>
+      <c r="J1793" t="n">
+        <v>28</v>
+      </c>
+      <c r="K1793" t="n">
+        <v>13</v>
+      </c>
+      <c r="L1793" t="n">
+        <v>15</v>
+      </c>
+      <c r="M1793" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1793" t="n">
+        <v>26</v>
+      </c>
+      <c r="O1793" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1793" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1793" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1793" t="inlineStr"/>
+    </row>
+    <row r="1794">
+      <c r="A1794" s="2" t="n">
+        <v>45471.59375</v>
+      </c>
+      <c r="B1794" t="n">
+        <v>17.95999908447266</v>
+      </c>
+      <c r="C1794" t="n">
+        <v>18.05999946594238</v>
+      </c>
+      <c r="D1794" t="n">
+        <v>17.82999992370605</v>
+      </c>
+      <c r="E1794" t="n">
+        <v>17.8700008392334</v>
+      </c>
+      <c r="F1794" t="n">
+        <v>17.8700008392334</v>
+      </c>
+      <c r="G1794" t="n">
+        <v>162004099</v>
+      </c>
+      <c r="H1794" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1794" t="n">
+        <v>6</v>
+      </c>
+      <c r="J1794" t="n">
+        <v>28</v>
+      </c>
+      <c r="K1794" t="n">
+        <v>14</v>
+      </c>
+      <c r="L1794" t="n">
+        <v>15</v>
+      </c>
+      <c r="M1794" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1794" t="n">
+        <v>26</v>
+      </c>
+      <c r="O1794" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1794" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1794" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1794" t="inlineStr"/>
+    </row>
+    <row r="1795">
+      <c r="A1795" s="2" t="n">
+        <v>45471.63541666666</v>
+      </c>
+      <c r="B1795" t="n">
+        <v>17.8700008392334</v>
+      </c>
+      <c r="C1795" t="n">
+        <v>17.95000076293945</v>
+      </c>
+      <c r="D1795" t="n">
+        <v>17.76000022888184</v>
+      </c>
+      <c r="E1795" t="n">
+        <v>17.88999938964844</v>
+      </c>
+      <c r="F1795" t="n">
+        <v>17.88999938964844</v>
+      </c>
+      <c r="G1795" t="n">
+        <v>93600664</v>
+      </c>
+      <c r="H1795" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1795" t="n">
+        <v>6</v>
+      </c>
+      <c r="J1795" t="n">
+        <v>28</v>
+      </c>
+      <c r="K1795" t="n">
+        <v>15</v>
+      </c>
+      <c r="L1795" t="n">
+        <v>15</v>
+      </c>
+      <c r="M1795" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1795" t="n">
+        <v>26</v>
+      </c>
+      <c r="O1795" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1795" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1795" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1795" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/stock_historical_data/60m/IDEA.NS.xlsx
+++ b/stock_historical_data/60m/IDEA.NS.xlsx
@@ -100653,7 +100653,9 @@
       <c r="Q1789" t="n">
         <v>0</v>
       </c>
-      <c r="R1789" t="inlineStr"/>
+      <c r="R1789" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1790">
       <c r="A1790" s="2" t="n">
@@ -100707,7 +100709,9 @@
       <c r="Q1790" t="n">
         <v>0</v>
       </c>
-      <c r="R1790" t="inlineStr"/>
+      <c r="R1790" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1791">
       <c r="A1791" s="2" t="n">
@@ -100761,7 +100765,9 @@
       <c r="Q1791" t="n">
         <v>0</v>
       </c>
-      <c r="R1791" t="inlineStr"/>
+      <c r="R1791" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1792">
       <c r="A1792" s="2" t="n">
@@ -100815,7 +100821,9 @@
       <c r="Q1792" t="n">
         <v>0</v>
       </c>
-      <c r="R1792" t="inlineStr"/>
+      <c r="R1792" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1793">
       <c r="A1793" s="2" t="n">
@@ -100869,7 +100877,9 @@
       <c r="Q1793" t="n">
         <v>0</v>
       </c>
-      <c r="R1793" t="inlineStr"/>
+      <c r="R1793" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1794">
       <c r="A1794" s="2" t="n">
@@ -100923,7 +100933,9 @@
       <c r="Q1794" t="n">
         <v>0</v>
       </c>
-      <c r="R1794" t="inlineStr"/>
+      <c r="R1794" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1795">
       <c r="A1795" s="2" t="n">
@@ -100977,7 +100989,9 @@
       <c r="Q1795" t="n">
         <v>0</v>
       </c>
-      <c r="R1795" t="inlineStr"/>
+      <c r="R1795" t="n">
+        <v>0</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/stock_historical_data/60m/IDEA.NS.xlsx
+++ b/stock_historical_data/60m/IDEA.NS.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:R1795"/>
+  <dimension ref="A1:R1802"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -100645,7 +100645,7 @@
         <v>26</v>
       </c>
       <c r="O1789" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P1789" t="n">
         <v>0</v>
@@ -100992,6 +100992,384 @@
       <c r="R1795" t="n">
         <v>0</v>
       </c>
+    </row>
+    <row r="1796">
+      <c r="A1796" s="2" t="n">
+        <v>45474.38541666666</v>
+      </c>
+      <c r="B1796" t="n">
+        <v>17.70000076293945</v>
+      </c>
+      <c r="C1796" t="n">
+        <v>18.04999923706055</v>
+      </c>
+      <c r="D1796" t="n">
+        <v>17.40999984741211</v>
+      </c>
+      <c r="E1796" t="n">
+        <v>17.76000022888184</v>
+      </c>
+      <c r="F1796" t="n">
+        <v>17.76000022888184</v>
+      </c>
+      <c r="G1796" t="n">
+        <v>0</v>
+      </c>
+      <c r="H1796" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1796" t="n">
+        <v>7</v>
+      </c>
+      <c r="J1796" t="n">
+        <v>1</v>
+      </c>
+      <c r="K1796" t="n">
+        <v>9</v>
+      </c>
+      <c r="L1796" t="n">
+        <v>15</v>
+      </c>
+      <c r="M1796" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1796" t="n">
+        <v>27</v>
+      </c>
+      <c r="O1796" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1796" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1796" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1796" t="inlineStr"/>
+    </row>
+    <row r="1797">
+      <c r="A1797" s="2" t="n">
+        <v>45474.42708333334</v>
+      </c>
+      <c r="B1797" t="n">
+        <v>17.78000068664551</v>
+      </c>
+      <c r="C1797" t="n">
+        <v>17.96999931335449</v>
+      </c>
+      <c r="D1797" t="n">
+        <v>17.75</v>
+      </c>
+      <c r="E1797" t="n">
+        <v>17.84000015258789</v>
+      </c>
+      <c r="F1797" t="n">
+        <v>17.84000015258789</v>
+      </c>
+      <c r="G1797" t="n">
+        <v>80170285</v>
+      </c>
+      <c r="H1797" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1797" t="n">
+        <v>7</v>
+      </c>
+      <c r="J1797" t="n">
+        <v>1</v>
+      </c>
+      <c r="K1797" t="n">
+        <v>10</v>
+      </c>
+      <c r="L1797" t="n">
+        <v>15</v>
+      </c>
+      <c r="M1797" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1797" t="n">
+        <v>27</v>
+      </c>
+      <c r="O1797" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1797" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1797" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1797" t="inlineStr"/>
+    </row>
+    <row r="1798">
+      <c r="A1798" s="2" t="n">
+        <v>45474.46875</v>
+      </c>
+      <c r="B1798" t="n">
+        <v>17.82999992370605</v>
+      </c>
+      <c r="C1798" t="n">
+        <v>18</v>
+      </c>
+      <c r="D1798" t="n">
+        <v>17.79000091552734</v>
+      </c>
+      <c r="E1798" t="n">
+        <v>17.95999908447266</v>
+      </c>
+      <c r="F1798" t="n">
+        <v>17.95999908447266</v>
+      </c>
+      <c r="G1798" t="n">
+        <v>70933869</v>
+      </c>
+      <c r="H1798" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1798" t="n">
+        <v>7</v>
+      </c>
+      <c r="J1798" t="n">
+        <v>1</v>
+      </c>
+      <c r="K1798" t="n">
+        <v>11</v>
+      </c>
+      <c r="L1798" t="n">
+        <v>15</v>
+      </c>
+      <c r="M1798" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1798" t="n">
+        <v>27</v>
+      </c>
+      <c r="O1798" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1798" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1798" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1798" t="inlineStr"/>
+    </row>
+    <row r="1799">
+      <c r="A1799" s="2" t="n">
+        <v>45474.51041666666</v>
+      </c>
+      <c r="B1799" t="n">
+        <v>17.95000076293945</v>
+      </c>
+      <c r="C1799" t="n">
+        <v>17.96999931335449</v>
+      </c>
+      <c r="D1799" t="n">
+        <v>17.67000007629395</v>
+      </c>
+      <c r="E1799" t="n">
+        <v>17.75</v>
+      </c>
+      <c r="F1799" t="n">
+        <v>17.75</v>
+      </c>
+      <c r="G1799" t="n">
+        <v>90803817</v>
+      </c>
+      <c r="H1799" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1799" t="n">
+        <v>7</v>
+      </c>
+      <c r="J1799" t="n">
+        <v>1</v>
+      </c>
+      <c r="K1799" t="n">
+        <v>12</v>
+      </c>
+      <c r="L1799" t="n">
+        <v>15</v>
+      </c>
+      <c r="M1799" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1799" t="n">
+        <v>27</v>
+      </c>
+      <c r="O1799" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1799" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1799" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1799" t="inlineStr"/>
+    </row>
+    <row r="1800">
+      <c r="A1800" s="2" t="n">
+        <v>45474.55208333334</v>
+      </c>
+      <c r="B1800" t="n">
+        <v>17.76000022888184</v>
+      </c>
+      <c r="C1800" t="n">
+        <v>17.85000038146973</v>
+      </c>
+      <c r="D1800" t="n">
+        <v>17.70000076293945</v>
+      </c>
+      <c r="E1800" t="n">
+        <v>17.72999954223633</v>
+      </c>
+      <c r="F1800" t="n">
+        <v>17.72999954223633</v>
+      </c>
+      <c r="G1800" t="n">
+        <v>60469806</v>
+      </c>
+      <c r="H1800" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1800" t="n">
+        <v>7</v>
+      </c>
+      <c r="J1800" t="n">
+        <v>1</v>
+      </c>
+      <c r="K1800" t="n">
+        <v>13</v>
+      </c>
+      <c r="L1800" t="n">
+        <v>15</v>
+      </c>
+      <c r="M1800" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1800" t="n">
+        <v>27</v>
+      </c>
+      <c r="O1800" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1800" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1800" t="n">
+        <v>2</v>
+      </c>
+      <c r="R1800" t="inlineStr"/>
+    </row>
+    <row r="1801">
+      <c r="A1801" s="2" t="n">
+        <v>45474.59375</v>
+      </c>
+      <c r="B1801" t="n">
+        <v>17.71999931335449</v>
+      </c>
+      <c r="C1801" t="n">
+        <v>17.86000061035156</v>
+      </c>
+      <c r="D1801" t="n">
+        <v>17.59000015258789</v>
+      </c>
+      <c r="E1801" t="n">
+        <v>17.67000007629395</v>
+      </c>
+      <c r="F1801" t="n">
+        <v>17.67000007629395</v>
+      </c>
+      <c r="G1801" t="n">
+        <v>182207270</v>
+      </c>
+      <c r="H1801" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1801" t="n">
+        <v>7</v>
+      </c>
+      <c r="J1801" t="n">
+        <v>1</v>
+      </c>
+      <c r="K1801" t="n">
+        <v>14</v>
+      </c>
+      <c r="L1801" t="n">
+        <v>15</v>
+      </c>
+      <c r="M1801" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1801" t="n">
+        <v>27</v>
+      </c>
+      <c r="O1801" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1801" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1801" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1801" t="inlineStr"/>
+    </row>
+    <row r="1802">
+      <c r="A1802" s="2" t="n">
+        <v>45474.63541666666</v>
+      </c>
+      <c r="B1802" t="n">
+        <v>17.68000030517578</v>
+      </c>
+      <c r="C1802" t="n">
+        <v>17.68000030517578</v>
+      </c>
+      <c r="D1802" t="n">
+        <v>17.57999992370605</v>
+      </c>
+      <c r="E1802" t="n">
+        <v>17.6200008392334</v>
+      </c>
+      <c r="F1802" t="n">
+        <v>17.6200008392334</v>
+      </c>
+      <c r="G1802" t="n">
+        <v>76390115</v>
+      </c>
+      <c r="H1802" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1802" t="n">
+        <v>7</v>
+      </c>
+      <c r="J1802" t="n">
+        <v>1</v>
+      </c>
+      <c r="K1802" t="n">
+        <v>15</v>
+      </c>
+      <c r="L1802" t="n">
+        <v>15</v>
+      </c>
+      <c r="M1802" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1802" t="n">
+        <v>27</v>
+      </c>
+      <c r="O1802" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1802" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1802" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1802" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/stock_historical_data/60m/IDEA.NS.xlsx
+++ b/stock_historical_data/60m/IDEA.NS.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:R1802"/>
+  <dimension ref="A1:R1809"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -101045,7 +101045,9 @@
       <c r="Q1796" t="n">
         <v>0</v>
       </c>
-      <c r="R1796" t="inlineStr"/>
+      <c r="R1796" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1797">
       <c r="A1797" s="2" t="n">
@@ -101099,7 +101101,9 @@
       <c r="Q1797" t="n">
         <v>0</v>
       </c>
-      <c r="R1797" t="inlineStr"/>
+      <c r="R1797" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1798">
       <c r="A1798" s="2" t="n">
@@ -101153,7 +101157,9 @@
       <c r="Q1798" t="n">
         <v>0</v>
       </c>
-      <c r="R1798" t="inlineStr"/>
+      <c r="R1798" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1799">
       <c r="A1799" s="2" t="n">
@@ -101207,7 +101213,9 @@
       <c r="Q1799" t="n">
         <v>0</v>
       </c>
-      <c r="R1799" t="inlineStr"/>
+      <c r="R1799" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1800">
       <c r="A1800" s="2" t="n">
@@ -101261,7 +101269,9 @@
       <c r="Q1800" t="n">
         <v>2</v>
       </c>
-      <c r="R1800" t="inlineStr"/>
+      <c r="R1800" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1801">
       <c r="A1801" s="2" t="n">
@@ -101315,7 +101325,9 @@
       <c r="Q1801" t="n">
         <v>0</v>
       </c>
-      <c r="R1801" t="inlineStr"/>
+      <c r="R1801" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1802">
       <c r="A1802" s="2" t="n">
@@ -101369,7 +101381,387 @@
       <c r="Q1802" t="n">
         <v>0</v>
       </c>
-      <c r="R1802" t="inlineStr"/>
+      <c r="R1802" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1803">
+      <c r="A1803" s="2" t="n">
+        <v>45475.38541666666</v>
+      </c>
+      <c r="B1803" t="n">
+        <v>17.70999908447266</v>
+      </c>
+      <c r="C1803" t="n">
+        <v>17.75</v>
+      </c>
+      <c r="D1803" t="n">
+        <v>17.3700008392334</v>
+      </c>
+      <c r="E1803" t="n">
+        <v>17.43000030517578</v>
+      </c>
+      <c r="F1803" t="n">
+        <v>17.43000030517578</v>
+      </c>
+      <c r="G1803" t="n">
+        <v>0</v>
+      </c>
+      <c r="H1803" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1803" t="n">
+        <v>7</v>
+      </c>
+      <c r="J1803" t="n">
+        <v>2</v>
+      </c>
+      <c r="K1803" t="n">
+        <v>9</v>
+      </c>
+      <c r="L1803" t="n">
+        <v>15</v>
+      </c>
+      <c r="M1803" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1803" t="n">
+        <v>27</v>
+      </c>
+      <c r="O1803" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1803" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1803" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1803" t="inlineStr"/>
+    </row>
+    <row r="1804">
+      <c r="A1804" s="2" t="n">
+        <v>45475.42708333334</v>
+      </c>
+      <c r="B1804" t="n">
+        <v>17.43000030517578</v>
+      </c>
+      <c r="C1804" t="n">
+        <v>17.53000068664551</v>
+      </c>
+      <c r="D1804" t="n">
+        <v>17.39999961853027</v>
+      </c>
+      <c r="E1804" t="n">
+        <v>17.47999954223633</v>
+      </c>
+      <c r="F1804" t="n">
+        <v>17.47999954223633</v>
+      </c>
+      <c r="G1804" t="n">
+        <v>70079205</v>
+      </c>
+      <c r="H1804" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1804" t="n">
+        <v>7</v>
+      </c>
+      <c r="J1804" t="n">
+        <v>2</v>
+      </c>
+      <c r="K1804" t="n">
+        <v>10</v>
+      </c>
+      <c r="L1804" t="n">
+        <v>15</v>
+      </c>
+      <c r="M1804" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1804" t="n">
+        <v>27</v>
+      </c>
+      <c r="O1804" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1804" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1804" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1804" t="inlineStr"/>
+    </row>
+    <row r="1805">
+      <c r="A1805" s="2" t="n">
+        <v>45475.46875</v>
+      </c>
+      <c r="B1805" t="n">
+        <v>17.46999931335449</v>
+      </c>
+      <c r="C1805" t="n">
+        <v>17.52000045776367</v>
+      </c>
+      <c r="D1805" t="n">
+        <v>17.3700008392334</v>
+      </c>
+      <c r="E1805" t="n">
+        <v>17.3799991607666</v>
+      </c>
+      <c r="F1805" t="n">
+        <v>17.3799991607666</v>
+      </c>
+      <c r="G1805" t="n">
+        <v>61945860</v>
+      </c>
+      <c r="H1805" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1805" t="n">
+        <v>7</v>
+      </c>
+      <c r="J1805" t="n">
+        <v>2</v>
+      </c>
+      <c r="K1805" t="n">
+        <v>11</v>
+      </c>
+      <c r="L1805" t="n">
+        <v>15</v>
+      </c>
+      <c r="M1805" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1805" t="n">
+        <v>27</v>
+      </c>
+      <c r="O1805" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1805" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1805" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1805" t="inlineStr"/>
+    </row>
+    <row r="1806">
+      <c r="A1806" s="2" t="n">
+        <v>45475.51041666666</v>
+      </c>
+      <c r="B1806" t="n">
+        <v>17.36000061035156</v>
+      </c>
+      <c r="C1806" t="n">
+        <v>17.42000007629395</v>
+      </c>
+      <c r="D1806" t="n">
+        <v>17.07999992370605</v>
+      </c>
+      <c r="E1806" t="n">
+        <v>17.11000061035156</v>
+      </c>
+      <c r="F1806" t="n">
+        <v>17.11000061035156</v>
+      </c>
+      <c r="G1806" t="n">
+        <v>149429307</v>
+      </c>
+      <c r="H1806" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1806" t="n">
+        <v>7</v>
+      </c>
+      <c r="J1806" t="n">
+        <v>2</v>
+      </c>
+      <c r="K1806" t="n">
+        <v>12</v>
+      </c>
+      <c r="L1806" t="n">
+        <v>15</v>
+      </c>
+      <c r="M1806" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1806" t="n">
+        <v>27</v>
+      </c>
+      <c r="O1806" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1806" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1806" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1806" t="inlineStr"/>
+    </row>
+    <row r="1807">
+      <c r="A1807" s="2" t="n">
+        <v>45475.55208333334</v>
+      </c>
+      <c r="B1807" t="n">
+        <v>17.09000015258789</v>
+      </c>
+      <c r="C1807" t="n">
+        <v>17.20999908447266</v>
+      </c>
+      <c r="D1807" t="n">
+        <v>17.01000022888184</v>
+      </c>
+      <c r="E1807" t="n">
+        <v>17.18000030517578</v>
+      </c>
+      <c r="F1807" t="n">
+        <v>17.18000030517578</v>
+      </c>
+      <c r="G1807" t="n">
+        <v>99888506</v>
+      </c>
+      <c r="H1807" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1807" t="n">
+        <v>7</v>
+      </c>
+      <c r="J1807" t="n">
+        <v>2</v>
+      </c>
+      <c r="K1807" t="n">
+        <v>13</v>
+      </c>
+      <c r="L1807" t="n">
+        <v>15</v>
+      </c>
+      <c r="M1807" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1807" t="n">
+        <v>27</v>
+      </c>
+      <c r="O1807" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1807" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1807" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1807" t="inlineStr"/>
+    </row>
+    <row r="1808">
+      <c r="A1808" s="2" t="n">
+        <v>45475.59375</v>
+      </c>
+      <c r="B1808" t="n">
+        <v>17.17000007629395</v>
+      </c>
+      <c r="C1808" t="n">
+        <v>17.21999931335449</v>
+      </c>
+      <c r="D1808" t="n">
+        <v>16.96999931335449</v>
+      </c>
+      <c r="E1808" t="n">
+        <v>16.98999977111816</v>
+      </c>
+      <c r="F1808" t="n">
+        <v>16.98999977111816</v>
+      </c>
+      <c r="G1808" t="n">
+        <v>132518715</v>
+      </c>
+      <c r="H1808" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1808" t="n">
+        <v>7</v>
+      </c>
+      <c r="J1808" t="n">
+        <v>2</v>
+      </c>
+      <c r="K1808" t="n">
+        <v>14</v>
+      </c>
+      <c r="L1808" t="n">
+        <v>15</v>
+      </c>
+      <c r="M1808" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1808" t="n">
+        <v>27</v>
+      </c>
+      <c r="O1808" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1808" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1808" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1808" t="inlineStr"/>
+    </row>
+    <row r="1809">
+      <c r="A1809" s="2" t="n">
+        <v>45475.63541666666</v>
+      </c>
+      <c r="B1809" t="n">
+        <v>16.98999977111816</v>
+      </c>
+      <c r="C1809" t="n">
+        <v>17.09000015258789</v>
+      </c>
+      <c r="D1809" t="n">
+        <v>16.95999908447266</v>
+      </c>
+      <c r="E1809" t="n">
+        <v>17.02000045776367</v>
+      </c>
+      <c r="F1809" t="n">
+        <v>17.02000045776367</v>
+      </c>
+      <c r="G1809" t="n">
+        <v>74902126</v>
+      </c>
+      <c r="H1809" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1809" t="n">
+        <v>7</v>
+      </c>
+      <c r="J1809" t="n">
+        <v>2</v>
+      </c>
+      <c r="K1809" t="n">
+        <v>15</v>
+      </c>
+      <c r="L1809" t="n">
+        <v>15</v>
+      </c>
+      <c r="M1809" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1809" t="n">
+        <v>27</v>
+      </c>
+      <c r="O1809" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1809" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1809" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1809" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/stock_historical_data/60m/IDEA.NS.xlsx
+++ b/stock_historical_data/60m/IDEA.NS.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:R1809"/>
+  <dimension ref="A1:R1816"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -101437,7 +101437,9 @@
       <c r="Q1803" t="n">
         <v>0</v>
       </c>
-      <c r="R1803" t="inlineStr"/>
+      <c r="R1803" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1804">
       <c r="A1804" s="2" t="n">
@@ -101491,7 +101493,9 @@
       <c r="Q1804" t="n">
         <v>0</v>
       </c>
-      <c r="R1804" t="inlineStr"/>
+      <c r="R1804" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1805">
       <c r="A1805" s="2" t="n">
@@ -101545,7 +101549,9 @@
       <c r="Q1805" t="n">
         <v>0</v>
       </c>
-      <c r="R1805" t="inlineStr"/>
+      <c r="R1805" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1806">
       <c r="A1806" s="2" t="n">
@@ -101599,7 +101605,9 @@
       <c r="Q1806" t="n">
         <v>0</v>
       </c>
-      <c r="R1806" t="inlineStr"/>
+      <c r="R1806" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1807">
       <c r="A1807" s="2" t="n">
@@ -101653,7 +101661,9 @@
       <c r="Q1807" t="n">
         <v>0</v>
       </c>
-      <c r="R1807" t="inlineStr"/>
+      <c r="R1807" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1808">
       <c r="A1808" s="2" t="n">
@@ -101707,7 +101717,9 @@
       <c r="Q1808" t="n">
         <v>0</v>
       </c>
-      <c r="R1808" t="inlineStr"/>
+      <c r="R1808" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1809">
       <c r="A1809" s="2" t="n">
@@ -101761,7 +101773,387 @@
       <c r="Q1809" t="n">
         <v>0</v>
       </c>
-      <c r="R1809" t="inlineStr"/>
+      <c r="R1809" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1810">
+      <c r="A1810" s="2" t="n">
+        <v>45476.38541666666</v>
+      </c>
+      <c r="B1810" t="n">
+        <v>17.07999992370605</v>
+      </c>
+      <c r="C1810" t="n">
+        <v>17.61000061035156</v>
+      </c>
+      <c r="D1810" t="n">
+        <v>16.92000007629395</v>
+      </c>
+      <c r="E1810" t="n">
+        <v>17.54999923706055</v>
+      </c>
+      <c r="F1810" t="n">
+        <v>17.54999923706055</v>
+      </c>
+      <c r="G1810" t="n">
+        <v>0</v>
+      </c>
+      <c r="H1810" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1810" t="n">
+        <v>7</v>
+      </c>
+      <c r="J1810" t="n">
+        <v>3</v>
+      </c>
+      <c r="K1810" t="n">
+        <v>9</v>
+      </c>
+      <c r="L1810" t="n">
+        <v>15</v>
+      </c>
+      <c r="M1810" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1810" t="n">
+        <v>27</v>
+      </c>
+      <c r="O1810" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1810" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1810" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1810" t="inlineStr"/>
+    </row>
+    <row r="1811">
+      <c r="A1811" s="2" t="n">
+        <v>45476.42708333334</v>
+      </c>
+      <c r="B1811" t="n">
+        <v>17.55999946594238</v>
+      </c>
+      <c r="C1811" t="n">
+        <v>17.55999946594238</v>
+      </c>
+      <c r="D1811" t="n">
+        <v>17.36000061035156</v>
+      </c>
+      <c r="E1811" t="n">
+        <v>17.42000007629395</v>
+      </c>
+      <c r="F1811" t="n">
+        <v>17.42000007629395</v>
+      </c>
+      <c r="G1811" t="n">
+        <v>148236028</v>
+      </c>
+      <c r="H1811" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1811" t="n">
+        <v>7</v>
+      </c>
+      <c r="J1811" t="n">
+        <v>3</v>
+      </c>
+      <c r="K1811" t="n">
+        <v>10</v>
+      </c>
+      <c r="L1811" t="n">
+        <v>15</v>
+      </c>
+      <c r="M1811" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1811" t="n">
+        <v>27</v>
+      </c>
+      <c r="O1811" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1811" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1811" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1811" t="inlineStr"/>
+    </row>
+    <row r="1812">
+      <c r="A1812" s="2" t="n">
+        <v>45476.46875</v>
+      </c>
+      <c r="B1812" t="n">
+        <v>17.40999984741211</v>
+      </c>
+      <c r="C1812" t="n">
+        <v>17.45999908447266</v>
+      </c>
+      <c r="D1812" t="n">
+        <v>17.35000038146973</v>
+      </c>
+      <c r="E1812" t="n">
+        <v>17.38999938964844</v>
+      </c>
+      <c r="F1812" t="n">
+        <v>17.38999938964844</v>
+      </c>
+      <c r="G1812" t="n">
+        <v>49250081</v>
+      </c>
+      <c r="H1812" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1812" t="n">
+        <v>7</v>
+      </c>
+      <c r="J1812" t="n">
+        <v>3</v>
+      </c>
+      <c r="K1812" t="n">
+        <v>11</v>
+      </c>
+      <c r="L1812" t="n">
+        <v>15</v>
+      </c>
+      <c r="M1812" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1812" t="n">
+        <v>27</v>
+      </c>
+      <c r="O1812" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1812" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1812" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1812" t="inlineStr"/>
+    </row>
+    <row r="1813">
+      <c r="A1813" s="2" t="n">
+        <v>45476.51041666666</v>
+      </c>
+      <c r="B1813" t="n">
+        <v>17.3799991607666</v>
+      </c>
+      <c r="C1813" t="n">
+        <v>17.45000076293945</v>
+      </c>
+      <c r="D1813" t="n">
+        <v>17.35000038146973</v>
+      </c>
+      <c r="E1813" t="n">
+        <v>17.44000053405762</v>
+      </c>
+      <c r="F1813" t="n">
+        <v>17.44000053405762</v>
+      </c>
+      <c r="G1813" t="n">
+        <v>43080515</v>
+      </c>
+      <c r="H1813" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1813" t="n">
+        <v>7</v>
+      </c>
+      <c r="J1813" t="n">
+        <v>3</v>
+      </c>
+      <c r="K1813" t="n">
+        <v>12</v>
+      </c>
+      <c r="L1813" t="n">
+        <v>15</v>
+      </c>
+      <c r="M1813" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1813" t="n">
+        <v>27</v>
+      </c>
+      <c r="O1813" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1813" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1813" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1813" t="inlineStr"/>
+    </row>
+    <row r="1814">
+      <c r="A1814" s="2" t="n">
+        <v>45476.55208333334</v>
+      </c>
+      <c r="B1814" t="n">
+        <v>17.43000030517578</v>
+      </c>
+      <c r="C1814" t="n">
+        <v>17.6200008392334</v>
+      </c>
+      <c r="D1814" t="n">
+        <v>17.34000015258789</v>
+      </c>
+      <c r="E1814" t="n">
+        <v>17.56999969482422</v>
+      </c>
+      <c r="F1814" t="n">
+        <v>17.56999969482422</v>
+      </c>
+      <c r="G1814" t="n">
+        <v>105952371</v>
+      </c>
+      <c r="H1814" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1814" t="n">
+        <v>7</v>
+      </c>
+      <c r="J1814" t="n">
+        <v>3</v>
+      </c>
+      <c r="K1814" t="n">
+        <v>13</v>
+      </c>
+      <c r="L1814" t="n">
+        <v>15</v>
+      </c>
+      <c r="M1814" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1814" t="n">
+        <v>27</v>
+      </c>
+      <c r="O1814" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1814" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1814" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1814" t="inlineStr"/>
+    </row>
+    <row r="1815">
+      <c r="A1815" s="2" t="n">
+        <v>45476.59375</v>
+      </c>
+      <c r="B1815" t="n">
+        <v>17.57999992370605</v>
+      </c>
+      <c r="C1815" t="n">
+        <v>17.67000007629395</v>
+      </c>
+      <c r="D1815" t="n">
+        <v>17.45000076293945</v>
+      </c>
+      <c r="E1815" t="n">
+        <v>17.47999954223633</v>
+      </c>
+      <c r="F1815" t="n">
+        <v>17.47999954223633</v>
+      </c>
+      <c r="G1815" t="n">
+        <v>136217583</v>
+      </c>
+      <c r="H1815" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1815" t="n">
+        <v>7</v>
+      </c>
+      <c r="J1815" t="n">
+        <v>3</v>
+      </c>
+      <c r="K1815" t="n">
+        <v>14</v>
+      </c>
+      <c r="L1815" t="n">
+        <v>15</v>
+      </c>
+      <c r="M1815" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1815" t="n">
+        <v>27</v>
+      </c>
+      <c r="O1815" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1815" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1815" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1815" t="inlineStr"/>
+    </row>
+    <row r="1816">
+      <c r="A1816" s="2" t="n">
+        <v>45476.63541666666</v>
+      </c>
+      <c r="B1816" t="n">
+        <v>17.46999931335449</v>
+      </c>
+      <c r="C1816" t="n">
+        <v>17.5</v>
+      </c>
+      <c r="D1816" t="n">
+        <v>17.40999984741211</v>
+      </c>
+      <c r="E1816" t="n">
+        <v>17.46999931335449</v>
+      </c>
+      <c r="F1816" t="n">
+        <v>17.46999931335449</v>
+      </c>
+      <c r="G1816" t="n">
+        <v>41258167</v>
+      </c>
+      <c r="H1816" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1816" t="n">
+        <v>7</v>
+      </c>
+      <c r="J1816" t="n">
+        <v>3</v>
+      </c>
+      <c r="K1816" t="n">
+        <v>15</v>
+      </c>
+      <c r="L1816" t="n">
+        <v>15</v>
+      </c>
+      <c r="M1816" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1816" t="n">
+        <v>27</v>
+      </c>
+      <c r="O1816" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1816" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1816" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1816" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
